--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>654955.1582397309</v>
+        <v>650823.0301790764</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7342674.070978891</v>
+        <v>7342674.070978886</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>185.919542430337</v>
       </c>
       <c r="D2" t="n">
-        <v>354.1883186891852</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
@@ -746,7 +746,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>97.02480100056786</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>138.8785155469674</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>113.1643532917001</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>45.4972473952427</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>397.9488868928833</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>223.6765297180456</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -913,7 +913,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>3.481923904681934</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -986,16 +986,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>36.29813993563581</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>231.6050020876947</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>303.7014505902952</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>186.7143821251131</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>36.29813993563581</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>34.21421359690527</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -1311,7 +1311,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>166.7165542762729</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>150.7325115131736</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.21743140560065</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.1243348826627</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3645169209957</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>279.4502432371106</v>
+        <v>144.2229867696455</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>46.66884686092258</v>
+        <v>76.52406636233719</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.8749293879092</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>94.04272796075722</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.81245333116767</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>172.2772135642168</v>
@@ -1593,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>98.21743140560065</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.1243348826627</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>290.6179655250537</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>56.41117671675559</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>109.908021685779</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.8749293879092</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>234.1497047728167</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9318228279296</v>
       </c>
       <c r="V16" t="n">
-        <v>6.639166099974333</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>76.75639426512193</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>403.0738774899803</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>25.07170567739201</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>98.21743140560065</v>
       </c>
       <c r="T17" t="n">
         <v>213.1243348826627</v>
       </c>
       <c r="U17" t="n">
-        <v>219.5151835800316</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>143.4425625590064</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8749293879092</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>141.8614469631877</v>
       </c>
       <c r="I19" t="n">
-        <v>59.57280025983243</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>52.81245333116767</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>172.2772135642168</v>
@@ -2061,13 +2061,13 @@
         <v>279.9318228279296</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>275.3723977766829</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>98.21743140560065</v>
       </c>
       <c r="T20" t="n">
-        <v>213.1243348826627</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3645169209957</v>
+        <v>253.4302129867334</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>81.12188479188458</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2250,7 +2250,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.8749293879092</v>
@@ -2259,7 +2259,7 @@
         <v>141.8614469631877</v>
       </c>
       <c r="I22" t="n">
-        <v>94.04272796075722</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>52.81245333116767</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>172.2772135642168</v>
+        <v>150.2408966475798</v>
       </c>
       <c r="T22" t="n">
         <v>234.1497047728167</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9318228279296</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>85.39493725754444</v>
+        <v>403.0738774899803</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>291.7501060264129</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>98.21743140560065</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>213.1243348826627</v>
@@ -2377,16 +2377,16 @@
         <v>254.3645169209957</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>258.2511405966885</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>84.68851834553691</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>52.81245333116767</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>172.2772135642168</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>234.1497047728167</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9318228279296</v>
       </c>
       <c r="V25" t="n">
-        <v>173.4129791071855</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>315.2335381367611</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>403.0738774899803</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>98.21743140560065</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3645169209957</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>234.4674935012878</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.8749293879092</v>
+        <v>159.7658595501053</v>
       </c>
       <c r="H28" t="n">
-        <v>141.8614469631877</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>52.81245333116767</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.2772135642168</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6591335743598</v>
+        <v>234.1497047728167</v>
       </c>
       <c r="U28" t="n">
         <v>279.9318228279296</v>
@@ -2797,16 +2797,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>90.4755519201731</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>403.0738774899803</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.1243348826627</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3645169209957</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>188.3431773138448</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.8749293879092</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>44.31372542326746</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.760936170102409</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>172.2772135642168</v>
       </c>
       <c r="T31" t="n">
         <v>234.1497047728167</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>129.2828702900108</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>291.7501060264129</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>98.21743140560065</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.1243348826627</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3645169209957</v>
       </c>
       <c r="V32" t="n">
-        <v>206.3972710616298</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3192,22 +3192,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.8749293879092</v>
+        <v>149.6851278165684</v>
       </c>
       <c r="H34" t="n">
-        <v>141.8614469631877</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>94.04272796075722</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>52.81245333116767</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>172.2772135642168</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>234.1497047728167</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9318228279296</v>
       </c>
       <c r="V34" t="n">
-        <v>173.4129791071855</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>58.68854352207315</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>403.0738774899803</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>291.7501060264129</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>89.71329772443121</v>
+        <v>213.1243348826627</v>
       </c>
       <c r="U35" t="n">
         <v>254.3645169209957</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.8749293879092</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141.8614469631877</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.81245333116767</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>172.2772135642168</v>
       </c>
       <c r="T37" t="n">
-        <v>234.1497047728167</v>
+        <v>164.2485662510064</v>
       </c>
       <c r="U37" t="n">
         <v>279.9318228279296</v>
       </c>
       <c r="V37" t="n">
-        <v>96.23843255485161</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.19128660853688</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>291.7501060264129</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>56.01441228616535</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,10 +3663,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.8749293879092</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>141.8614469631877</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>94.04272796075722</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.639166099974333</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>172.2772135642168</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>234.1497047728167</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9318228279296</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>48.34166619108515</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>291.7501060264129</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>98.21743140560065</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.1243348826627</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>245.226718516214</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>350.1074118073602</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.8749293879092</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.2108883498999</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>94.04272796075722</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>52.81245333116767</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>172.2772135642168</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>234.1497047728167</v>
       </c>
       <c r="U43" t="n">
-        <v>70.48342288693465</v>
+        <v>279.9318228279296</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>343.9821915574451</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>178.7908220440382</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>98.21743140560065</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.1243348826627</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3645169209957</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>164.8749293879092</v>
       </c>
       <c r="H46" t="n">
-        <v>141.8614469631877</v>
+        <v>77.20892644214048</v>
       </c>
       <c r="I46" t="n">
-        <v>94.04272796075722</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.639166099974333</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>172.2772135642168</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>234.1497047728167</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>922.4589739470562</v>
+        <v>660.4780896168154</v>
       </c>
       <c r="C2" t="n">
-        <v>512.3343832603263</v>
+        <v>472.6805720104144</v>
       </c>
       <c r="D2" t="n">
-        <v>154.5684047864017</v>
+        <v>472.257046143879</v>
       </c>
       <c r="E2" t="n">
-        <v>144.2685933437025</v>
+        <v>461.9572347011797</v>
       </c>
       <c r="F2" t="n">
-        <v>127.2785853377941</v>
+        <v>40.92682265486728</v>
       </c>
       <c r="G2" t="n">
-        <v>122.5907052710304</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="H2" t="n">
-        <v>122.5907052710304</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="I2" t="n">
         <v>36.23894258810353</v>
@@ -4336,46 +4336,46 @@
         <v>290.4244140558578</v>
       </c>
       <c r="L2" t="n">
-        <v>290.4244140558578</v>
+        <v>553.3156478647572</v>
       </c>
       <c r="M2" t="n">
-        <v>593.8722935543221</v>
+        <v>1001.772562392538</v>
       </c>
       <c r="N2" t="n">
-        <v>593.8722935543221</v>
+        <v>1001.772562392538</v>
       </c>
       <c r="O2" t="n">
-        <v>1042.329208082103</v>
+        <v>1001.772562392538</v>
       </c>
       <c r="P2" t="n">
-        <v>1490.786122609885</v>
+        <v>1450.22947692032</v>
       </c>
       <c r="Q2" t="n">
-        <v>1811.947129405177</v>
+        <v>1771.390483715612</v>
       </c>
       <c r="R2" t="n">
         <v>1811.947129405177</v>
       </c>
       <c r="S2" t="n">
-        <v>1811.947129405177</v>
+        <v>1676.666054199277</v>
       </c>
       <c r="T2" t="n">
-        <v>1589.740645352035</v>
+        <v>1454.459570146136</v>
       </c>
       <c r="U2" t="n">
-        <v>1332.680153611546</v>
+        <v>1454.459570146136</v>
       </c>
       <c r="V2" t="n">
-        <v>1332.680153611546</v>
+        <v>1454.459570146136</v>
       </c>
       <c r="W2" t="n">
-        <v>1332.680153611546</v>
+        <v>1070.699269281305</v>
       </c>
       <c r="X2" t="n">
-        <v>1332.680153611546</v>
+        <v>1070.699269281305</v>
       </c>
       <c r="Y2" t="n">
-        <v>1332.680153611546</v>
+        <v>1070.699269281305</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>715.0697844746378</v>
+        <v>692.5818179624889</v>
       </c>
       <c r="C3" t="n">
-        <v>581.0747132235836</v>
+        <v>558.5867467114347</v>
       </c>
       <c r="D3" t="n">
-        <v>464.177555442976</v>
+        <v>441.6895889308271</v>
       </c>
       <c r="E3" t="n">
         <v>343.684739435304</v>
@@ -4415,46 +4415,46 @@
         <v>677.5087146785179</v>
       </c>
       <c r="L3" t="n">
-        <v>677.5087146785179</v>
+        <v>984.0862308307821</v>
       </c>
       <c r="M3" t="n">
-        <v>1013.645750193412</v>
+        <v>984.0862308307821</v>
       </c>
       <c r="N3" t="n">
-        <v>1013.645750193412</v>
+        <v>984.0862308307821</v>
       </c>
       <c r="O3" t="n">
-        <v>1013.645750193412</v>
+        <v>984.0862308307821</v>
       </c>
       <c r="P3" t="n">
-        <v>1462.102664721193</v>
+        <v>1432.543145358563</v>
       </c>
       <c r="Q3" t="n">
-        <v>1811.947129405177</v>
+        <v>1782.387610042547</v>
       </c>
       <c r="R3" t="n">
         <v>1811.947129405177</v>
       </c>
       <c r="S3" t="n">
-        <v>1703.957119519485</v>
+        <v>1811.947129405177</v>
       </c>
       <c r="T3" t="n">
-        <v>1544.615255706494</v>
+        <v>1652.605265592185</v>
       </c>
       <c r="U3" t="n">
-        <v>1544.615255706494</v>
+        <v>1455.254454730403</v>
       </c>
       <c r="V3" t="n">
-        <v>1404.333926871173</v>
+        <v>1241.542927723437</v>
       </c>
       <c r="W3" t="n">
-        <v>1191.100758607502</v>
+        <v>1028.309759459766</v>
       </c>
       <c r="X3" t="n">
-        <v>1014.774776746394</v>
+        <v>851.9837775986589</v>
       </c>
       <c r="Y3" t="n">
-        <v>855.3728171102244</v>
+        <v>692.5818179624889</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.3503050287904</v>
+        <v>634.1966312482848</v>
       </c>
       <c r="C4" t="n">
-        <v>556.3503050287904</v>
+        <v>463.1032588100013</v>
       </c>
       <c r="D4" t="n">
-        <v>396.8556603517005</v>
+        <v>463.1032588100013</v>
       </c>
       <c r="E4" t="n">
-        <v>396.8556603517005</v>
+        <v>302.1924436783207</v>
       </c>
       <c r="F4" t="n">
-        <v>396.8556603517005</v>
+        <v>302.1924436783207</v>
       </c>
       <c r="G4" t="n">
-        <v>396.8556603517005</v>
+        <v>302.1924436783207</v>
       </c>
       <c r="H4" t="n">
-        <v>282.5482327843267</v>
+        <v>152.5849884837774</v>
       </c>
       <c r="I4" t="n">
-        <v>282.5482327843267</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="J4" t="n">
-        <v>296.6307821895372</v>
+        <v>50.32149199331405</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1831099117751</v>
+        <v>204.873819715552</v>
       </c>
       <c r="L4" t="n">
-        <v>711.0802101918357</v>
+        <v>464.7709199956126</v>
       </c>
       <c r="M4" t="n">
-        <v>1000.344266632329</v>
+        <v>754.0349764361058</v>
       </c>
       <c r="N4" t="n">
-        <v>1281.183049026579</v>
+        <v>1034.873758830356</v>
       </c>
       <c r="O4" t="n">
-        <v>1540.743659353053</v>
+        <v>1294.43436915683</v>
       </c>
       <c r="P4" t="n">
-        <v>1746.419099602666</v>
+        <v>1500.109809406443</v>
       </c>
       <c r="Q4" t="n">
-        <v>1811.947129405177</v>
+        <v>1565.637839208953</v>
       </c>
       <c r="R4" t="n">
-        <v>1726.674411080576</v>
+        <v>1480.365120884353</v>
       </c>
       <c r="S4" t="n">
-        <v>1540.282642960487</v>
+        <v>1480.365120884353</v>
       </c>
       <c r="T4" t="n">
-        <v>1300.733903937189</v>
+        <v>1480.365120884353</v>
       </c>
       <c r="U4" t="n">
-        <v>1017.935756483313</v>
+        <v>1197.566973430477</v>
       </c>
       <c r="V4" t="n">
-        <v>744.0500114228348</v>
+        <v>1197.566973430477</v>
       </c>
       <c r="W4" t="n">
-        <v>744.0500114228348</v>
+        <v>918.4973089393516</v>
       </c>
       <c r="X4" t="n">
-        <v>744.0500114228348</v>
+        <v>680.153446799035</v>
       </c>
       <c r="Y4" t="n">
-        <v>744.0500114228348</v>
+        <v>634.1966312482848</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.218302781561</v>
+        <v>694.4008358181275</v>
       </c>
       <c r="C5" t="n">
-        <v>781.0937120948309</v>
+        <v>284.2762451313976</v>
       </c>
       <c r="D5" t="n">
-        <v>379.125139475757</v>
+        <v>283.8527192648622</v>
       </c>
       <c r="E5" t="n">
-        <v>368.8253280330577</v>
+        <v>57.91683066077567</v>
       </c>
       <c r="F5" t="n">
-        <v>351.8353200271493</v>
+        <v>40.92682265486728</v>
       </c>
       <c r="G5" t="n">
-        <v>347.1474399603856</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="H5" t="n">
         <v>36.23894258810353</v>
@@ -4567,28 +4567,28 @@
         <v>36.23894258810353</v>
       </c>
       <c r="J5" t="n">
-        <v>36.23894258810353</v>
+        <v>290.4244140558578</v>
       </c>
       <c r="K5" t="n">
-        <v>36.23894258810353</v>
+        <v>738.8813285836391</v>
       </c>
       <c r="L5" t="n">
-        <v>36.23894258810353</v>
+        <v>1001.772562392538</v>
       </c>
       <c r="M5" t="n">
-        <v>484.6958571158847</v>
+        <v>1001.772562392538</v>
       </c>
       <c r="N5" t="n">
-        <v>915.0333003496141</v>
+        <v>1450.22947692032</v>
       </c>
       <c r="O5" t="n">
-        <v>1363.490214877395</v>
+        <v>1450.22947692032</v>
       </c>
       <c r="P5" t="n">
-        <v>1811.947129405177</v>
+        <v>1450.22947692032</v>
       </c>
       <c r="Q5" t="n">
-        <v>1811.947129405177</v>
+        <v>1771.390483715612</v>
       </c>
       <c r="R5" t="n">
         <v>1811.947129405177</v>
@@ -4600,19 +4600,19 @@
         <v>1454.459570146136</v>
       </c>
       <c r="U5" t="n">
-        <v>1197.399078405646</v>
+        <v>1454.459570146136</v>
       </c>
       <c r="V5" t="n">
-        <v>1197.399078405646</v>
+        <v>1104.622015482617</v>
       </c>
       <c r="W5" t="n">
-        <v>1197.399078405646</v>
+        <v>1104.622015482617</v>
       </c>
       <c r="X5" t="n">
-        <v>1197.399078405646</v>
+        <v>1104.622015482617</v>
       </c>
       <c r="Y5" t="n">
-        <v>1197.399078405646</v>
+        <v>1104.622015482617</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>584.5918080767976</v>
+        <v>444.288775441211</v>
       </c>
       <c r="C6" t="n">
-        <v>581.0747132235836</v>
+        <v>310.2937041901567</v>
       </c>
       <c r="D6" t="n">
-        <v>464.177555442976</v>
+        <v>193.3965464095491</v>
       </c>
       <c r="E6" t="n">
-        <v>343.684739435304</v>
+        <v>72.90373040187708</v>
       </c>
       <c r="F6" t="n">
-        <v>234.7248596178086</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="G6" t="n">
-        <v>127.7347469321473</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="H6" t="n">
-        <v>56.98753396786336</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="I6" t="n">
         <v>36.23894258810353</v>
       </c>
       <c r="J6" t="n">
-        <v>229.0518001507368</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="K6" t="n">
-        <v>677.5087146785179</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="L6" t="n">
-        <v>885.4737809869841</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="M6" t="n">
-        <v>1333.930695514765</v>
+        <v>484.6958571158847</v>
       </c>
       <c r="N6" t="n">
-        <v>1333.930695514765</v>
+        <v>933.1527716436659</v>
       </c>
       <c r="O6" t="n">
-        <v>1333.930695514765</v>
+        <v>1381.609686171447</v>
       </c>
       <c r="P6" t="n">
-        <v>1782.387610042547</v>
+        <v>1811.947129405177</v>
       </c>
       <c r="Q6" t="n">
-        <v>1782.387610042547</v>
+        <v>1811.947129405177</v>
       </c>
       <c r="R6" t="n">
         <v>1811.947129405177</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>632.7804607936941</v>
+        <v>1009.226746993566</v>
       </c>
       <c r="C7" t="n">
-        <v>461.6870883554107</v>
+        <v>838.1333745552827</v>
       </c>
       <c r="D7" t="n">
-        <v>302.1924436783207</v>
+        <v>678.6387298781926</v>
       </c>
       <c r="E7" t="n">
-        <v>302.1924436783207</v>
+        <v>517.7279147465122</v>
       </c>
       <c r="F7" t="n">
-        <v>302.1924436783207</v>
+        <v>353.0967888571034</v>
       </c>
       <c r="G7" t="n">
-        <v>302.1924436783207</v>
+        <v>185.8463977826469</v>
       </c>
       <c r="H7" t="n">
-        <v>152.5849884837774</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="I7" t="n">
         <v>36.23894258810353</v>
@@ -4749,28 +4749,28 @@
         <v>1565.637839208953</v>
       </c>
       <c r="R7" t="n">
-        <v>1480.365120884353</v>
+        <v>1565.637839208953</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.973352764263</v>
+        <v>1565.637839208953</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.424613740965</v>
+        <v>1565.637839208953</v>
       </c>
       <c r="U7" t="n">
-        <v>820.4801671877385</v>
+        <v>1565.637839208953</v>
       </c>
       <c r="V7" t="n">
-        <v>820.4801671877385</v>
+        <v>1565.637839208953</v>
       </c>
       <c r="W7" t="n">
-        <v>820.4801671877385</v>
+        <v>1565.637839208953</v>
       </c>
       <c r="X7" t="n">
-        <v>820.4801671877385</v>
+        <v>1421.662151998846</v>
       </c>
       <c r="Y7" t="n">
-        <v>820.4801671877385</v>
+        <v>1196.926453387611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1269.841880744144</v>
+        <v>1047.635396691003</v>
       </c>
       <c r="C8" t="n">
-        <v>963.0727387337453</v>
+        <v>1041.551210044677</v>
       </c>
       <c r="D8" t="n">
-        <v>558.6088088268058</v>
+        <v>1041.127684178142</v>
       </c>
       <c r="E8" t="n">
-        <v>144.2685933437025</v>
+        <v>1030.827872735443</v>
       </c>
       <c r="F8" t="n">
-        <v>127.2785853377941</v>
+        <v>842.2274867504802</v>
       </c>
       <c r="G8" t="n">
-        <v>122.5907052710304</v>
+        <v>433.4992026433124</v>
       </c>
       <c r="H8" t="n">
         <v>122.5907052710304</v>
@@ -4804,28 +4804,28 @@
         <v>36.23894258810353</v>
       </c>
       <c r="J8" t="n">
-        <v>145.415379026541</v>
+        <v>290.4244140558578</v>
       </c>
       <c r="K8" t="n">
-        <v>145.415379026541</v>
+        <v>290.4244140558578</v>
       </c>
       <c r="L8" t="n">
-        <v>593.8722935543221</v>
+        <v>290.4244140558578</v>
       </c>
       <c r="M8" t="n">
-        <v>1042.329208082103</v>
+        <v>290.4244140558578</v>
       </c>
       <c r="N8" t="n">
-        <v>1490.786122609885</v>
+        <v>738.8813285836391</v>
       </c>
       <c r="O8" t="n">
-        <v>1490.786122609885</v>
+        <v>1187.33824311142</v>
       </c>
       <c r="P8" t="n">
-        <v>1490.786122609885</v>
+        <v>1450.22947692032</v>
       </c>
       <c r="Q8" t="n">
-        <v>1811.947129405177</v>
+        <v>1771.390483715612</v>
       </c>
       <c r="R8" t="n">
         <v>1811.947129405177</v>
@@ -4834,22 +4834,22 @@
         <v>1676.666054199277</v>
       </c>
       <c r="T8" t="n">
-        <v>1676.666054199277</v>
+        <v>1454.459570146136</v>
       </c>
       <c r="U8" t="n">
-        <v>1676.666054199277</v>
+        <v>1454.459570146136</v>
       </c>
       <c r="V8" t="n">
-        <v>1676.666054199277</v>
+        <v>1454.459570146136</v>
       </c>
       <c r="W8" t="n">
-        <v>1676.666054199277</v>
+        <v>1454.459570146136</v>
       </c>
       <c r="X8" t="n">
-        <v>1276.02265636823</v>
+        <v>1053.816172315089</v>
       </c>
       <c r="Y8" t="n">
-        <v>1276.02265636823</v>
+        <v>1053.816172315089</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>715.0697844746378</v>
+        <v>444.288775441211</v>
       </c>
       <c r="C9" t="n">
-        <v>581.0747132235836</v>
+        <v>310.2937041901567</v>
       </c>
       <c r="D9" t="n">
-        <v>464.177555442976</v>
+        <v>193.3965464095491</v>
       </c>
       <c r="E9" t="n">
-        <v>343.684739435304</v>
+        <v>72.90373040187708</v>
       </c>
       <c r="F9" t="n">
-        <v>234.7248596178086</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="G9" t="n">
-        <v>127.7347469321473</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="H9" t="n">
-        <v>56.98753396786336</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="I9" t="n">
         <v>36.23894258810353</v>
@@ -4886,22 +4886,22 @@
         <v>36.23894258810353</v>
       </c>
       <c r="K9" t="n">
-        <v>36.23894258810353</v>
+        <v>484.6958571158847</v>
       </c>
       <c r="L9" t="n">
-        <v>484.6958571158847</v>
+        <v>915.0333003496141</v>
       </c>
       <c r="M9" t="n">
-        <v>933.1527716436659</v>
+        <v>1363.490214877395</v>
       </c>
       <c r="N9" t="n">
-        <v>1381.609686171447</v>
+        <v>1363.490214877395</v>
       </c>
       <c r="O9" t="n">
-        <v>1381.609686171447</v>
+        <v>1363.490214877395</v>
       </c>
       <c r="P9" t="n">
-        <v>1462.102664721193</v>
+        <v>1811.947129405177</v>
       </c>
       <c r="Q9" t="n">
         <v>1811.947129405177</v>
@@ -4910,25 +4910,25 @@
         <v>1811.947129405177</v>
       </c>
       <c r="S9" t="n">
-        <v>1811.947129405177</v>
+        <v>1703.957119519485</v>
       </c>
       <c r="T9" t="n">
-        <v>1652.605265592185</v>
+        <v>1544.615255706494</v>
       </c>
       <c r="U9" t="n">
-        <v>1618.045453878139</v>
+        <v>1347.264444844712</v>
       </c>
       <c r="V9" t="n">
-        <v>1404.333926871173</v>
+        <v>1133.552917837746</v>
       </c>
       <c r="W9" t="n">
-        <v>1191.100758607502</v>
+        <v>920.3197495740748</v>
       </c>
       <c r="X9" t="n">
-        <v>1014.774776746394</v>
+        <v>743.9937677129676</v>
       </c>
       <c r="Y9" t="n">
-        <v>855.3728171102244</v>
+        <v>584.5918080767976</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1125.57279288924</v>
+        <v>678.6387298781926</v>
       </c>
       <c r="C10" t="n">
-        <v>954.4794204509567</v>
+        <v>678.6387298781926</v>
       </c>
       <c r="D10" t="n">
-        <v>794.9847757738667</v>
+        <v>678.6387298781926</v>
       </c>
       <c r="E10" t="n">
-        <v>634.0739606421861</v>
+        <v>517.7279147465122</v>
       </c>
       <c r="F10" t="n">
-        <v>469.4428347527773</v>
+        <v>353.0967888571034</v>
       </c>
       <c r="G10" t="n">
-        <v>302.1924436783207</v>
+        <v>185.8463977826469</v>
       </c>
       <c r="H10" t="n">
-        <v>152.5849884837774</v>
+        <v>36.23894258810353</v>
       </c>
       <c r="I10" t="n">
         <v>36.23894258810353</v>
@@ -4992,22 +4992,22 @@
         <v>1293.973352764263</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.57279288924</v>
+        <v>1293.973352764263</v>
       </c>
       <c r="U10" t="n">
-        <v>1125.57279288924</v>
+        <v>1293.973352764263</v>
       </c>
       <c r="V10" t="n">
-        <v>1125.57279288924</v>
+        <v>1293.973352764263</v>
       </c>
       <c r="W10" t="n">
-        <v>1125.57279288924</v>
+        <v>1141.718290629745</v>
       </c>
       <c r="X10" t="n">
-        <v>1125.57279288924</v>
+        <v>903.3744284894279</v>
       </c>
       <c r="Y10" t="n">
-        <v>1125.57279288924</v>
+        <v>678.6387298781926</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.76556114795468</v>
+        <v>1276.384493787937</v>
       </c>
       <c r="C11" t="n">
-        <v>40.76556114795468</v>
+        <v>866.2599031012066</v>
       </c>
       <c r="D11" t="n">
-        <v>40.76556114795468</v>
+        <v>461.7959731942671</v>
       </c>
       <c r="E11" t="n">
-        <v>40.76556114795468</v>
+        <v>461.7959731942671</v>
       </c>
       <c r="F11" t="n">
         <v>40.76556114795468</v>
@@ -5041,52 +5041,52 @@
         <v>40.76556114795468</v>
       </c>
       <c r="J11" t="n">
-        <v>426.6286274928888</v>
+        <v>99.85280060515966</v>
       </c>
       <c r="K11" t="n">
-        <v>931.1024466988279</v>
+        <v>596.8213305360272</v>
       </c>
       <c r="L11" t="n">
-        <v>1081.402749063016</v>
+        <v>747.1216329002157</v>
       </c>
       <c r="M11" t="n">
-        <v>1261.466917375911</v>
+        <v>927.1858012131105</v>
       </c>
       <c r="N11" t="n">
-        <v>1446.313304576828</v>
+        <v>1112.032188414027</v>
       </c>
       <c r="O11" t="n">
-        <v>1615.457725579009</v>
+        <v>1281.176609416208</v>
       </c>
       <c r="P11" t="n">
-        <v>1948.854694325801</v>
+        <v>1411.564554099207</v>
       </c>
       <c r="Q11" t="n">
-        <v>2027.260648271888</v>
+        <v>1900.264981195747</v>
       </c>
       <c r="R11" t="n">
         <v>2038.278057397734</v>
       </c>
       <c r="S11" t="n">
-        <v>1939.06853072541</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="T11" t="n">
-        <v>1723.791424783326</v>
+        <v>1823.00095145565</v>
       </c>
       <c r="U11" t="n">
-        <v>1466.857569307573</v>
+        <v>1823.00095145565</v>
       </c>
       <c r="V11" t="n">
-        <v>1117.020014644054</v>
+        <v>1823.00095145565</v>
       </c>
       <c r="W11" t="n">
-        <v>733.2597137792225</v>
+        <v>1823.00095145565</v>
       </c>
       <c r="X11" t="n">
-        <v>450.9867408124441</v>
+        <v>1677.321166839847</v>
       </c>
       <c r="Y11" t="n">
-        <v>450.9867408124441</v>
+        <v>1276.384493787937</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>40.76556114795468</v>
       </c>
       <c r="I12" t="n">
-        <v>40.76556114795468</v>
+        <v>49.01007408088263</v>
       </c>
       <c r="J12" t="n">
-        <v>312.0046921376032</v>
+        <v>320.2492050705312</v>
       </c>
       <c r="K12" t="n">
-        <v>814.9921471188384</v>
+        <v>399.0246729535755</v>
       </c>
       <c r="L12" t="n">
-        <v>939.6761143519747</v>
+        <v>523.7086401867118</v>
       </c>
       <c r="M12" t="n">
-        <v>1093.015954760011</v>
+        <v>677.0484805947484</v>
       </c>
       <c r="N12" t="n">
-        <v>1256.249745657591</v>
+        <v>892.1039377578904</v>
       </c>
       <c r="O12" t="n">
         <v>1396.57775696383</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.90581050242193</v>
+        <v>379.5955850984634</v>
       </c>
       <c r="C13" t="n">
-        <v>40.76556114795468</v>
+        <v>302.2985483688299</v>
       </c>
       <c r="D13" t="n">
-        <v>40.76556114795468</v>
+        <v>302.2985483688299</v>
       </c>
       <c r="E13" t="n">
-        <v>40.76556114795468</v>
+        <v>302.2985483688299</v>
       </c>
       <c r="F13" t="n">
-        <v>40.76556114795468</v>
+        <v>302.2985483688299</v>
       </c>
       <c r="G13" t="n">
-        <v>40.76556114795468</v>
+        <v>135.7582156537701</v>
       </c>
       <c r="H13" t="n">
-        <v>40.76556114795468</v>
+        <v>135.7582156537701</v>
       </c>
       <c r="I13" t="n">
         <v>40.76556114795468</v>
       </c>
       <c r="J13" t="n">
-        <v>40.76556114795468</v>
+        <v>104.050234154929</v>
       </c>
       <c r="K13" t="n">
-        <v>276.172092243028</v>
+        <v>339.4567652500024</v>
       </c>
       <c r="L13" t="n">
-        <v>481.0150992866643</v>
+        <v>702.8194087193705</v>
       </c>
       <c r="M13" t="n">
         <v>879.3690640806631</v>
@@ -5223,28 +5223,28 @@
         <v>2038.278057397734</v>
       </c>
       <c r="R13" t="n">
-        <v>1984.932144942009</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="S13" t="n">
-        <v>1810.914757503406</v>
+        <v>1864.260669959131</v>
       </c>
       <c r="T13" t="n">
-        <v>1574.399904197531</v>
+        <v>1627.745816653256</v>
       </c>
       <c r="U13" t="n">
-        <v>1291.640487199622</v>
+        <v>1344.986399655347</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.754742139144</v>
+        <v>1071.100654594869</v>
       </c>
       <c r="W13" t="n">
-        <v>738.6850776480183</v>
+        <v>792.0309901037431</v>
       </c>
       <c r="X13" t="n">
-        <v>500.3412155077016</v>
+        <v>792.0309901037431</v>
       </c>
       <c r="Y13" t="n">
-        <v>275.6055168964663</v>
+        <v>567.2952914925078</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>450.8901518346846</v>
+        <v>865.2303673177878</v>
       </c>
       <c r="C14" t="n">
-        <v>40.76556114795468</v>
+        <v>455.1057766310579</v>
       </c>
       <c r="D14" t="n">
-        <v>40.76556114795468</v>
+        <v>455.1057766310579</v>
       </c>
       <c r="E14" t="n">
         <v>40.76556114795468</v>
@@ -5308,22 +5308,22 @@
         <v>1939.06853072541</v>
       </c>
       <c r="T14" t="n">
-        <v>1939.06853072541</v>
+        <v>1723.791424783326</v>
       </c>
       <c r="U14" t="n">
-        <v>1939.06853072541</v>
+        <v>1723.791424783326</v>
       </c>
       <c r="V14" t="n">
-        <v>1645.515030195053</v>
+        <v>1723.791424783326</v>
       </c>
       <c r="W14" t="n">
-        <v>1261.754729330221</v>
+        <v>1666.810438200745</v>
       </c>
       <c r="X14" t="n">
-        <v>861.111331499174</v>
+        <v>1266.167040369698</v>
       </c>
       <c r="Y14" t="n">
-        <v>861.111331499174</v>
+        <v>865.2303673177878</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>40.76556114795468</v>
       </c>
       <c r="I15" t="n">
-        <v>40.76556114795468</v>
+        <v>49.01007408088263</v>
       </c>
       <c r="J15" t="n">
-        <v>312.0046921376032</v>
+        <v>320.2492050705312</v>
       </c>
       <c r="K15" t="n">
-        <v>390.7801600206475</v>
+        <v>814.9921471188377</v>
       </c>
       <c r="L15" t="n">
-        <v>581.8223530308496</v>
+        <v>939.676114351974</v>
       </c>
       <c r="M15" t="n">
-        <v>735.1621934388862</v>
+        <v>1093.015954760011</v>
       </c>
       <c r="N15" t="n">
-        <v>898.3959843364657</v>
+        <v>1256.24974565759</v>
       </c>
       <c r="O15" t="n">
-        <v>1402.869803542405</v>
+        <v>1396.577756963829</v>
       </c>
       <c r="P15" t="n">
-        <v>1907.343622748344</v>
+        <v>1501.37346574457</v>
       </c>
       <c r="Q15" t="n">
         <v>1957.179504256132</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1101.722897377199</v>
+        <v>727.7045154020293</v>
       </c>
       <c r="C16" t="n">
-        <v>930.6295249389159</v>
+        <v>556.6111429637458</v>
       </c>
       <c r="D16" t="n">
-        <v>771.1348802618259</v>
+        <v>445.5929392407367</v>
       </c>
       <c r="E16" t="n">
-        <v>610.2240651301454</v>
+        <v>445.5929392407367</v>
       </c>
       <c r="F16" t="n">
         <v>445.5929392407367</v>
@@ -5436,19 +5436,19 @@
         <v>40.76556114795468</v>
       </c>
       <c r="J16" t="n">
-        <v>40.76556114795468</v>
+        <v>104.050234154929</v>
       </c>
       <c r="K16" t="n">
-        <v>276.172092243028</v>
+        <v>339.4567652500024</v>
       </c>
       <c r="L16" t="n">
-        <v>639.5347357123961</v>
+        <v>702.8194087193705</v>
       </c>
       <c r="M16" t="n">
-        <v>1037.888700506395</v>
+        <v>879.3690640806631</v>
       </c>
       <c r="N16" t="n">
-        <v>1425.223477061438</v>
+        <v>1266.703840635707</v>
       </c>
       <c r="O16" t="n">
         <v>1624.630738445815</v>
@@ -5466,22 +5466,22 @@
         <v>2038.278057397734</v>
       </c>
       <c r="T16" t="n">
-        <v>2038.278057397734</v>
+        <v>1801.763204091858</v>
       </c>
       <c r="U16" t="n">
-        <v>2038.278057397734</v>
+        <v>1519.00378709395</v>
       </c>
       <c r="V16" t="n">
-        <v>2031.571829013921</v>
+        <v>1245.118042033472</v>
       </c>
       <c r="W16" t="n">
-        <v>1752.502164522796</v>
+        <v>966.0483775423459</v>
       </c>
       <c r="X16" t="n">
-        <v>1514.158302382479</v>
+        <v>727.7045154020293</v>
       </c>
       <c r="Y16" t="n">
-        <v>1289.422603771244</v>
+        <v>727.7045154020293</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.09051637764358</v>
+        <v>1340.031123918495</v>
       </c>
       <c r="C17" t="n">
-        <v>66.09051637764358</v>
+        <v>929.9065332317651</v>
       </c>
       <c r="D17" t="n">
-        <v>66.09051637764358</v>
+        <v>525.4426033248257</v>
       </c>
       <c r="E17" t="n">
-        <v>66.09051637764358</v>
+        <v>525.4426033248257</v>
       </c>
       <c r="F17" t="n">
-        <v>66.09051637764358</v>
+        <v>447.9108919459146</v>
       </c>
       <c r="G17" t="n">
-        <v>66.09051637764358</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="H17" t="n">
-        <v>66.09051637764358</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="I17" t="n">
         <v>40.76556114795468</v>
       </c>
       <c r="J17" t="n">
-        <v>426.6286274928888</v>
+        <v>113.6299009638392</v>
       </c>
       <c r="K17" t="n">
-        <v>535.7341825421369</v>
+        <v>222.7354560130874</v>
       </c>
       <c r="L17" t="n">
-        <v>686.0344849063254</v>
+        <v>373.0357583772759</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.508304112265</v>
+        <v>553.0999266901707</v>
       </c>
       <c r="N17" t="n">
-        <v>1375.354691313181</v>
+        <v>737.9463138910876</v>
       </c>
       <c r="O17" t="n">
-        <v>1818.466749642801</v>
+        <v>907.0907348932681</v>
       </c>
       <c r="P17" t="n">
-        <v>1948.854694325801</v>
+        <v>1411.564554099207</v>
       </c>
       <c r="Q17" t="n">
-        <v>2027.260648271888</v>
+        <v>1900.264981195747</v>
       </c>
       <c r="R17" t="n">
         <v>2038.278057397734</v>
       </c>
       <c r="S17" t="n">
-        <v>2038.278057397734</v>
+        <v>1939.06853072541</v>
       </c>
       <c r="T17" t="n">
-        <v>1823.00095145565</v>
+        <v>1723.791424783326</v>
       </c>
       <c r="U17" t="n">
-        <v>1601.268442788952</v>
+        <v>1723.791424783326</v>
       </c>
       <c r="V17" t="n">
-        <v>1251.430888125432</v>
+        <v>1723.791424783326</v>
       </c>
       <c r="W17" t="n">
-        <v>867.670587260601</v>
+        <v>1340.031123918495</v>
       </c>
       <c r="X17" t="n">
-        <v>467.0271894295535</v>
+        <v>1340.031123918495</v>
       </c>
       <c r="Y17" t="n">
-        <v>66.09051637764358</v>
+        <v>1340.031123918495</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>49.01007408088263</v>
       </c>
       <c r="J18" t="n">
-        <v>76.58080109589795</v>
+        <v>320.2492050705312</v>
       </c>
       <c r="K18" t="n">
-        <v>581.0546203018371</v>
+        <v>824.7230242764704</v>
       </c>
       <c r="L18" t="n">
-        <v>705.7385875349734</v>
+        <v>949.4069915096067</v>
       </c>
       <c r="M18" t="n">
-        <v>859.07842794301</v>
+        <v>1102.746831917643</v>
       </c>
       <c r="N18" t="n">
-        <v>1256.249745657591</v>
+        <v>1265.980622815223</v>
       </c>
       <c r="O18" t="n">
-        <v>1396.57775696383</v>
+        <v>1770.454442021162</v>
       </c>
       <c r="P18" t="n">
-        <v>1501.373465744571</v>
+        <v>1907.343622748345</v>
       </c>
       <c r="Q18" t="n">
         <v>1957.179504256132</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1066.904788588387</v>
+        <v>184.0599520198615</v>
       </c>
       <c r="C19" t="n">
-        <v>895.811416150103</v>
+        <v>184.0599520198615</v>
       </c>
       <c r="D19" t="n">
-        <v>736.316771473013</v>
+        <v>184.0599520198615</v>
       </c>
       <c r="E19" t="n">
-        <v>575.4059563413325</v>
+        <v>184.0599520198615</v>
       </c>
       <c r="F19" t="n">
-        <v>410.7748304519238</v>
+        <v>184.0599520198615</v>
       </c>
       <c r="G19" t="n">
-        <v>244.2344977368639</v>
+        <v>184.0599520198615</v>
       </c>
       <c r="H19" t="n">
-        <v>100.9401068649571</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="I19" t="n">
         <v>40.76556114795468</v>
@@ -5685,40 +5685,40 @@
         <v>1101.173373513369</v>
       </c>
       <c r="N19" t="n">
-        <v>1266.703840635707</v>
+        <v>1488.508150068413</v>
       </c>
       <c r="O19" t="n">
-        <v>1624.630738445815</v>
+        <v>1846.435047878521</v>
       </c>
       <c r="P19" t="n">
-        <v>1914.475530938949</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="Q19" t="n">
         <v>2038.278057397734</v>
       </c>
       <c r="R19" t="n">
-        <v>1984.932144942009</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="S19" t="n">
-        <v>1810.914757503406</v>
+        <v>1864.260669959131</v>
       </c>
       <c r="T19" t="n">
-        <v>1574.399904197531</v>
+        <v>1627.745816653256</v>
       </c>
       <c r="U19" t="n">
-        <v>1291.640487199622</v>
+        <v>1344.986399655347</v>
       </c>
       <c r="V19" t="n">
-        <v>1291.640487199622</v>
+        <v>1071.100654594869</v>
       </c>
       <c r="W19" t="n">
-        <v>1291.640487199622</v>
+        <v>792.0309901037431</v>
       </c>
       <c r="X19" t="n">
-        <v>1291.640487199622</v>
+        <v>553.6871279634265</v>
       </c>
       <c r="Y19" t="n">
-        <v>1066.904788588387</v>
+        <v>328.9514293521912</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>733.2597137792225</v>
+        <v>871.920563880997</v>
       </c>
       <c r="C20" t="n">
-        <v>733.2597137792225</v>
+        <v>461.7959731942671</v>
       </c>
       <c r="D20" t="n">
-        <v>733.2597137792225</v>
+        <v>461.7959731942671</v>
       </c>
       <c r="E20" t="n">
-        <v>318.9194982961192</v>
+        <v>461.7959731942671</v>
       </c>
       <c r="F20" t="n">
-        <v>318.9194982961192</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="G20" t="n">
         <v>40.76556114795468</v>
@@ -5752,22 +5752,22 @@
         <v>40.76556114795468</v>
       </c>
       <c r="J20" t="n">
-        <v>99.85280060515966</v>
+        <v>426.6286274928888</v>
       </c>
       <c r="K20" t="n">
-        <v>604.3266198110988</v>
+        <v>687.4883716814575</v>
       </c>
       <c r="L20" t="n">
-        <v>754.6269221752873</v>
+        <v>837.788674045646</v>
       </c>
       <c r="M20" t="n">
-        <v>934.6910904881821</v>
+        <v>1017.852842358541</v>
       </c>
       <c r="N20" t="n">
-        <v>1119.537477689099</v>
+        <v>1522.32666156448</v>
       </c>
       <c r="O20" t="n">
-        <v>1317.385208043721</v>
+        <v>1691.47108256666</v>
       </c>
       <c r="P20" t="n">
         <v>1821.85902724966</v>
@@ -5782,22 +5782,22 @@
         <v>1939.06853072541</v>
       </c>
       <c r="T20" t="n">
-        <v>1723.791424783326</v>
+        <v>1939.06853072541</v>
       </c>
       <c r="U20" t="n">
-        <v>1466.857569307573</v>
+        <v>1683.078416597396</v>
       </c>
       <c r="V20" t="n">
-        <v>1117.020014644054</v>
+        <v>1683.078416597396</v>
       </c>
       <c r="W20" t="n">
-        <v>733.2597137792225</v>
+        <v>1683.078416597396</v>
       </c>
       <c r="X20" t="n">
-        <v>733.2597137792225</v>
+        <v>1683.078416597396</v>
       </c>
       <c r="Y20" t="n">
-        <v>733.2597137792225</v>
+        <v>1282.141743545486</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>320.2492050705312</v>
       </c>
       <c r="K21" t="n">
-        <v>399.0246729535755</v>
+        <v>814.9921471188377</v>
       </c>
       <c r="L21" t="n">
-        <v>653.2722642494855</v>
+        <v>939.676114351974</v>
       </c>
       <c r="M21" t="n">
-        <v>1157.746083455425</v>
+        <v>1093.015954760011</v>
       </c>
       <c r="N21" t="n">
-        <v>1662.219902661364</v>
+        <v>1256.24974565759</v>
       </c>
       <c r="O21" t="n">
-        <v>1802.547913967603</v>
+        <v>1396.577756963829</v>
       </c>
       <c r="P21" t="n">
-        <v>1907.343622748344</v>
+        <v>1501.37346574457</v>
       </c>
       <c r="Q21" t="n">
         <v>1957.179504256132</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1012.570822708496</v>
+        <v>671.0057445436919</v>
       </c>
       <c r="C22" t="n">
-        <v>930.6295249389159</v>
+        <v>671.0057445436919</v>
       </c>
       <c r="D22" t="n">
-        <v>771.1348802618259</v>
+        <v>511.5110998666019</v>
       </c>
       <c r="E22" t="n">
-        <v>610.2240651301454</v>
+        <v>350.6002847349213</v>
       </c>
       <c r="F22" t="n">
-        <v>445.5929392407367</v>
+        <v>350.6002847349213</v>
       </c>
       <c r="G22" t="n">
-        <v>279.0526065256769</v>
+        <v>184.0599520198615</v>
       </c>
       <c r="H22" t="n">
-        <v>135.7582156537701</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="I22" t="n">
         <v>40.76556114795468</v>
@@ -5916,10 +5916,10 @@
         <v>339.4567652500024</v>
       </c>
       <c r="L22" t="n">
-        <v>481.0150992866643</v>
+        <v>702.8194087193705</v>
       </c>
       <c r="M22" t="n">
-        <v>879.3690640806631</v>
+        <v>1101.173373513369</v>
       </c>
       <c r="N22" t="n">
         <v>1266.703840635707</v>
@@ -5934,28 +5934,28 @@
         <v>2038.278057397734</v>
       </c>
       <c r="R22" t="n">
-        <v>1984.932144942009</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="S22" t="n">
-        <v>1810.914757503406</v>
+        <v>1886.519575935532</v>
       </c>
       <c r="T22" t="n">
-        <v>1574.399904197531</v>
+        <v>1650.004722629656</v>
       </c>
       <c r="U22" t="n">
-        <v>1291.640487199622</v>
+        <v>1650.004722629656</v>
       </c>
       <c r="V22" t="n">
-        <v>1291.640487199622</v>
+        <v>1376.118977569178</v>
       </c>
       <c r="W22" t="n">
-        <v>1012.570822708496</v>
+        <v>1097.049313078053</v>
       </c>
       <c r="X22" t="n">
-        <v>1012.570822708496</v>
+        <v>858.7054509377363</v>
       </c>
       <c r="Y22" t="n">
-        <v>1012.570822708496</v>
+        <v>858.7054509377363</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>131.5496920891638</v>
+        <v>747.1345873001223</v>
       </c>
       <c r="C23" t="n">
-        <v>131.5496920891638</v>
+        <v>747.1345873001223</v>
       </c>
       <c r="D23" t="n">
-        <v>131.5496920891638</v>
+        <v>747.1345873001223</v>
       </c>
       <c r="E23" t="n">
-        <v>131.5496920891638</v>
+        <v>747.1345873001223</v>
       </c>
       <c r="F23" t="n">
-        <v>131.5496920891638</v>
+        <v>747.1345873001223</v>
       </c>
       <c r="G23" t="n">
-        <v>45.29217970780581</v>
+        <v>339.9892565021623</v>
       </c>
       <c r="H23" t="n">
         <v>45.29217970780581</v>
@@ -5989,52 +5989,52 @@
         <v>45.29217970780581</v>
       </c>
       <c r="J23" t="n">
-        <v>104.3794191650108</v>
+        <v>431.1552460527399</v>
       </c>
       <c r="K23" t="n">
-        <v>664.8701430491078</v>
+        <v>540.260801101988</v>
       </c>
       <c r="L23" t="n">
-        <v>815.1704454132963</v>
+        <v>690.5611034661765</v>
       </c>
       <c r="M23" t="n">
-        <v>995.2346137261911</v>
+        <v>870.6252717790713</v>
       </c>
       <c r="N23" t="n">
-        <v>1180.081000927108</v>
+        <v>1055.471658979988</v>
       </c>
       <c r="O23" t="n">
-        <v>1349.225421929289</v>
+        <v>1224.616079982169</v>
       </c>
       <c r="P23" t="n">
-        <v>1909.716145813386</v>
+        <v>1764.891149167905</v>
       </c>
       <c r="Q23" t="n">
-        <v>2126.595909188304</v>
+        <v>2253.591576264445</v>
       </c>
       <c r="R23" t="n">
         <v>2264.608985390291</v>
       </c>
       <c r="S23" t="n">
-        <v>2165.399458717967</v>
+        <v>2264.608985390291</v>
       </c>
       <c r="T23" t="n">
-        <v>1950.122352775883</v>
+        <v>2049.331879448207</v>
       </c>
       <c r="U23" t="n">
-        <v>1693.18849730013</v>
+        <v>1792.398023972454</v>
       </c>
       <c r="V23" t="n">
-        <v>1343.350942636611</v>
+        <v>1792.398023972454</v>
       </c>
       <c r="W23" t="n">
-        <v>1343.350942636611</v>
+        <v>1408.637723107623</v>
       </c>
       <c r="X23" t="n">
-        <v>942.7075448055632</v>
+        <v>1007.994325276575</v>
       </c>
       <c r="Y23" t="n">
-        <v>541.7708717536533</v>
+        <v>747.1345873001223</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>45.29217970780581</v>
       </c>
       <c r="I24" t="n">
-        <v>45.29217970780581</v>
+        <v>53.53669264073376</v>
       </c>
       <c r="J24" t="n">
-        <v>72.86290672282114</v>
+        <v>324.7758236303823</v>
       </c>
       <c r="K24" t="n">
-        <v>633.353630606918</v>
+        <v>403.5512915134266</v>
       </c>
       <c r="L24" t="n">
-        <v>758.0375978400543</v>
+        <v>528.2352587465629</v>
       </c>
       <c r="M24" t="n">
-        <v>911.3774382480909</v>
+        <v>681.5750991545995</v>
       </c>
       <c r="N24" t="n">
-        <v>1074.61122914567</v>
+        <v>844.808890052179</v>
       </c>
       <c r="O24" t="n">
-        <v>1214.939240451909</v>
+        <v>1026.507913561926</v>
       </c>
       <c r="P24" t="n">
         <v>1586.998637446023</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1106.249515937051</v>
+        <v>871.3880140530648</v>
       </c>
       <c r="C25" t="n">
-        <v>935.1561434987671</v>
+        <v>700.2946416147813</v>
       </c>
       <c r="D25" t="n">
-        <v>775.661498821677</v>
+        <v>700.2946416147813</v>
       </c>
       <c r="E25" t="n">
         <v>614.7506836899965</v>
@@ -6147,10 +6147,10 @@
         <v>45.29217970780581</v>
       </c>
       <c r="J25" t="n">
-        <v>108.5768527147802</v>
+        <v>108.5768527147801</v>
       </c>
       <c r="K25" t="n">
-        <v>343.9833838098536</v>
+        <v>343.9833838098535</v>
       </c>
       <c r="L25" t="n">
         <v>707.3460272792217</v>
@@ -6171,28 +6171,28 @@
         <v>2264.608985390291</v>
       </c>
       <c r="R25" t="n">
-        <v>2211.263072934566</v>
+        <v>2264.608985390291</v>
       </c>
       <c r="S25" t="n">
-        <v>2211.263072934566</v>
+        <v>2090.591597951688</v>
       </c>
       <c r="T25" t="n">
-        <v>2211.263072934566</v>
+        <v>1854.076744645813</v>
       </c>
       <c r="U25" t="n">
-        <v>2211.263072934566</v>
+        <v>1571.317327647904</v>
       </c>
       <c r="V25" t="n">
-        <v>2036.098447573773</v>
+        <v>1297.431582587426</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.028783082647</v>
+        <v>1297.431582587426</v>
       </c>
       <c r="X25" t="n">
-        <v>1518.68492094233</v>
+        <v>1059.087720447109</v>
       </c>
       <c r="Y25" t="n">
-        <v>1293.949222331095</v>
+        <v>1059.087720447109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>866.7777259888691</v>
+        <v>363.7098949974635</v>
       </c>
       <c r="C26" t="n">
-        <v>866.7777259888691</v>
+        <v>45.29217970780581</v>
       </c>
       <c r="D26" t="n">
-        <v>866.7777259888691</v>
+        <v>45.29217970780581</v>
       </c>
       <c r="E26" t="n">
-        <v>452.4375105057658</v>
+        <v>45.29217970780581</v>
       </c>
       <c r="F26" t="n">
-        <v>452.4375105057658</v>
+        <v>45.29217970780581</v>
       </c>
       <c r="G26" t="n">
         <v>45.29217970780581</v>
@@ -6226,52 +6226,52 @@
         <v>45.29217970780581</v>
       </c>
       <c r="J26" t="n">
-        <v>104.3794191650108</v>
+        <v>431.1552460527399</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484974214259</v>
+        <v>950.2519772352694</v>
       </c>
       <c r="L26" t="n">
-        <v>363.7852765784475</v>
+        <v>1510.742701119366</v>
       </c>
       <c r="M26" t="n">
-        <v>924.2760004625444</v>
+        <v>1690.806869432261</v>
       </c>
       <c r="N26" t="n">
-        <v>1109.122387663461</v>
+        <v>1875.653256633178</v>
       </c>
       <c r="O26" t="n">
-        <v>1487.69923135812</v>
+        <v>2044.797677635358</v>
       </c>
       <c r="P26" t="n">
-        <v>2048.189955242216</v>
+        <v>2175.185622318358</v>
       </c>
       <c r="Q26" t="n">
-        <v>2126.595909188304</v>
+        <v>2253.591576264445</v>
       </c>
       <c r="R26" t="n">
         <v>2264.608985390291</v>
       </c>
       <c r="S26" t="n">
-        <v>2264.608985390291</v>
+        <v>2165.399458717967</v>
       </c>
       <c r="T26" t="n">
-        <v>2264.608985390291</v>
+        <v>2165.399458717967</v>
       </c>
       <c r="U26" t="n">
-        <v>2264.608985390291</v>
+        <v>1908.465603242214</v>
       </c>
       <c r="V26" t="n">
-        <v>1914.771430726772</v>
+        <v>1558.628048578694</v>
       </c>
       <c r="W26" t="n">
-        <v>1677.935578705269</v>
+        <v>1174.867747713863</v>
       </c>
       <c r="X26" t="n">
-        <v>1677.935578705269</v>
+        <v>1174.867747713863</v>
       </c>
       <c r="Y26" t="n">
-        <v>1276.998905653359</v>
+        <v>773.9310746619529</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>45.29217970780581</v>
       </c>
       <c r="I27" t="n">
-        <v>45.29217970780581</v>
+        <v>53.53669264073376</v>
       </c>
       <c r="J27" t="n">
-        <v>316.5313106974544</v>
+        <v>324.7758236303823</v>
       </c>
       <c r="K27" t="n">
-        <v>395.3067785804986</v>
+        <v>850.8924607207086</v>
       </c>
       <c r="L27" t="n">
-        <v>955.7975024645956</v>
+        <v>975.5764279538449</v>
       </c>
       <c r="M27" t="n">
-        <v>1109.137342872632</v>
+        <v>1128.916268361882</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.371133770212</v>
+        <v>1292.150059259461</v>
       </c>
       <c r="O27" t="n">
-        <v>1832.861857654309</v>
+        <v>1432.4780705657</v>
       </c>
       <c r="P27" t="n">
         <v>1992.968794449797</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.6688443158616</v>
+        <v>367.5826509507039</v>
       </c>
       <c r="C28" t="n">
-        <v>680.6688443158616</v>
+        <v>367.5826509507039</v>
       </c>
       <c r="D28" t="n">
-        <v>680.6688443158616</v>
+        <v>367.5826509507039</v>
       </c>
       <c r="E28" t="n">
-        <v>519.7580291841812</v>
+        <v>206.6718358190233</v>
       </c>
       <c r="F28" t="n">
-        <v>355.1269032947724</v>
+        <v>206.6718358190233</v>
       </c>
       <c r="G28" t="n">
-        <v>188.5865705797126</v>
+        <v>45.29217970780581</v>
       </c>
       <c r="H28" t="n">
         <v>45.29217970780581</v>
@@ -6384,22 +6384,22 @@
         <v>45.29217970780581</v>
       </c>
       <c r="J28" t="n">
-        <v>108.5768527147798</v>
+        <v>108.5768527147802</v>
       </c>
       <c r="K28" t="n">
-        <v>343.9833838098532</v>
+        <v>343.9833838098539</v>
       </c>
       <c r="L28" t="n">
-        <v>707.3460272792213</v>
+        <v>707.3460272792222</v>
       </c>
       <c r="M28" t="n">
-        <v>1105.69999207322</v>
+        <v>1105.699992073221</v>
       </c>
       <c r="N28" t="n">
         <v>1493.034768628264</v>
       </c>
       <c r="O28" t="n">
-        <v>1850.961666438372</v>
+        <v>1850.961666438373</v>
       </c>
       <c r="P28" t="n">
         <v>2140.806458931505</v>
@@ -6408,28 +6408,28 @@
         <v>2264.608985390291</v>
       </c>
       <c r="R28" t="n">
-        <v>2211.263072934566</v>
+        <v>2264.608985390291</v>
       </c>
       <c r="S28" t="n">
-        <v>2211.263072934566</v>
+        <v>2090.591597951688</v>
       </c>
       <c r="T28" t="n">
-        <v>2167.16293801097</v>
+        <v>1854.076744645813</v>
       </c>
       <c r="U28" t="n">
-        <v>1884.403521013061</v>
+        <v>1571.317327647904</v>
       </c>
       <c r="V28" t="n">
-        <v>1610.517775952583</v>
+        <v>1297.431582587426</v>
       </c>
       <c r="W28" t="n">
-        <v>1331.448111461458</v>
+        <v>1018.3619180963</v>
       </c>
       <c r="X28" t="n">
-        <v>1093.104249321141</v>
+        <v>780.0180559559835</v>
       </c>
       <c r="Y28" t="n">
-        <v>868.368550709906</v>
+        <v>555.2823573447482</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>862.5621011924957</v>
+        <v>1382.176844307965</v>
       </c>
       <c r="C29" t="n">
-        <v>452.4375105057658</v>
+        <v>972.0522536212349</v>
       </c>
       <c r="D29" t="n">
-        <v>452.4375105057658</v>
+        <v>880.6628072372216</v>
       </c>
       <c r="E29" t="n">
-        <v>452.4375105057658</v>
+        <v>466.3225917541183</v>
       </c>
       <c r="F29" t="n">
-        <v>452.4375105057658</v>
+        <v>45.29217970780581</v>
       </c>
       <c r="G29" t="n">
         <v>45.29217970780581</v>
@@ -6463,25 +6463,25 @@
         <v>45.29217970780581</v>
       </c>
       <c r="J29" t="n">
-        <v>104.3794191650108</v>
+        <v>431.1552460527399</v>
       </c>
       <c r="K29" t="n">
-        <v>213.484974214259</v>
+        <v>540.260801101988</v>
       </c>
       <c r="L29" t="n">
-        <v>773.9756980983559</v>
+        <v>690.5611034661765</v>
       </c>
       <c r="M29" t="n">
-        <v>954.0398664112507</v>
+        <v>870.6252717790713</v>
       </c>
       <c r="N29" t="n">
-        <v>1357.31128667512</v>
+        <v>1055.471658979988</v>
       </c>
       <c r="O29" t="n">
-        <v>1917.802010559217</v>
+        <v>1224.616079982169</v>
       </c>
       <c r="P29" t="n">
-        <v>2048.189955242216</v>
+        <v>1637.895482091764</v>
       </c>
       <c r="Q29" t="n">
         <v>2126.595909188304</v>
@@ -6493,22 +6493,22 @@
         <v>2264.608985390291</v>
       </c>
       <c r="T29" t="n">
-        <v>2264.608985390291</v>
+        <v>2049.331879448207</v>
       </c>
       <c r="U29" t="n">
-        <v>2264.608985390291</v>
+        <v>1792.398023972454</v>
       </c>
       <c r="V29" t="n">
-        <v>2264.608985390291</v>
+        <v>1792.398023972454</v>
       </c>
       <c r="W29" t="n">
-        <v>2074.363351739943</v>
+        <v>1792.398023972454</v>
       </c>
       <c r="X29" t="n">
-        <v>1673.719953908895</v>
+        <v>1792.398023972454</v>
       </c>
       <c r="Y29" t="n">
-        <v>1272.783280856985</v>
+        <v>1792.398023972454</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>45.29217970780581</v>
       </c>
       <c r="I30" t="n">
-        <v>45.29217970780581</v>
+        <v>53.53669264073376</v>
       </c>
       <c r="J30" t="n">
-        <v>72.86290672282114</v>
+        <v>324.7758236303823</v>
       </c>
       <c r="K30" t="n">
-        <v>633.353630606918</v>
+        <v>885.2665475144793</v>
       </c>
       <c r="L30" t="n">
-        <v>1193.844354491015</v>
+        <v>1009.950514747616</v>
       </c>
       <c r="M30" t="n">
-        <v>1347.184194899052</v>
+        <v>1163.290355155652</v>
       </c>
       <c r="N30" t="n">
-        <v>1510.417985796631</v>
+        <v>1326.524146053232</v>
       </c>
       <c r="O30" t="n">
-        <v>1650.74599710287</v>
+        <v>1466.852157359471</v>
       </c>
       <c r="P30" t="n">
-        <v>1911.870241308195</v>
+        <v>1571.647866140212</v>
       </c>
       <c r="Q30" t="n">
-        <v>1961.706122815983</v>
+        <v>2027.453904651773</v>
       </c>
       <c r="R30" t="n">
         <v>2042.804675957584</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>536.7910119548599</v>
+        <v>592.3183495619392</v>
       </c>
       <c r="C31" t="n">
-        <v>365.6976395165763</v>
+        <v>421.2249771236557</v>
       </c>
       <c r="D31" t="n">
-        <v>206.2029948394863</v>
+        <v>421.2249771236557</v>
       </c>
       <c r="E31" t="n">
-        <v>45.29217970780581</v>
+        <v>421.2249771236557</v>
       </c>
       <c r="F31" t="n">
-        <v>45.29217970780581</v>
+        <v>256.5938512342469</v>
       </c>
       <c r="G31" t="n">
-        <v>45.29217970780581</v>
+        <v>90.05351851918709</v>
       </c>
       <c r="H31" t="n">
         <v>45.29217970780581</v>
@@ -6645,28 +6645,28 @@
         <v>2264.608985390291</v>
       </c>
       <c r="R31" t="n">
-        <v>2259.799958955844</v>
+        <v>2264.608985390291</v>
       </c>
       <c r="S31" t="n">
-        <v>2259.799958955844</v>
+        <v>2090.591597951688</v>
       </c>
       <c r="T31" t="n">
-        <v>2023.285105649969</v>
+        <v>1854.076744645813</v>
       </c>
       <c r="U31" t="n">
-        <v>1740.52568865206</v>
+        <v>1571.317327647904</v>
       </c>
       <c r="V31" t="n">
-        <v>1466.639943591582</v>
+        <v>1297.431582587426</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.570279100456</v>
+        <v>1018.3619180963</v>
       </c>
       <c r="X31" t="n">
-        <v>949.2264169601395</v>
+        <v>780.0180559559835</v>
       </c>
       <c r="Y31" t="n">
-        <v>724.4907183489042</v>
+        <v>780.0180559559835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>870.7865216610578</v>
+        <v>891.6084264171726</v>
       </c>
       <c r="C32" t="n">
-        <v>870.7865216610578</v>
+        <v>891.6084264171726</v>
       </c>
       <c r="D32" t="n">
-        <v>466.3225917541183</v>
+        <v>891.6084264171726</v>
       </c>
       <c r="E32" t="n">
-        <v>466.3225917541183</v>
+        <v>891.6084264171726</v>
       </c>
       <c r="F32" t="n">
-        <v>45.29217970780581</v>
+        <v>470.5780143708602</v>
       </c>
       <c r="G32" t="n">
-        <v>45.29217970780581</v>
+        <v>339.9892565021623</v>
       </c>
       <c r="H32" t="n">
         <v>45.29217970780581</v>
@@ -6700,52 +6700,52 @@
         <v>45.29217970780581</v>
       </c>
       <c r="J32" t="n">
-        <v>104.3794191650108</v>
+        <v>431.1552460527399</v>
       </c>
       <c r="K32" t="n">
-        <v>213.484974214259</v>
+        <v>540.260801101988</v>
       </c>
       <c r="L32" t="n">
-        <v>773.9756980983559</v>
+        <v>1100.751524986085</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.16686567294</v>
+        <v>1661.242248870182</v>
       </c>
       <c r="N32" t="n">
-        <v>1748.657589557037</v>
+        <v>1875.653256633178</v>
       </c>
       <c r="O32" t="n">
-        <v>1917.802010559217</v>
+        <v>2044.797677635358</v>
       </c>
       <c r="P32" t="n">
-        <v>2048.189955242216</v>
+        <v>2175.185622318358</v>
       </c>
       <c r="Q32" t="n">
-        <v>2126.595909188304</v>
+        <v>2253.591576264445</v>
       </c>
       <c r="R32" t="n">
         <v>2264.608985390291</v>
       </c>
       <c r="S32" t="n">
-        <v>2264.608985390291</v>
+        <v>2165.399458717967</v>
       </c>
       <c r="T32" t="n">
-        <v>2264.608985390291</v>
+        <v>1950.122352775883</v>
       </c>
       <c r="U32" t="n">
-        <v>2264.608985390291</v>
+        <v>1693.18849730013</v>
       </c>
       <c r="V32" t="n">
-        <v>2056.126893408847</v>
+        <v>1693.18849730013</v>
       </c>
       <c r="W32" t="n">
-        <v>1672.366592544015</v>
+        <v>1693.18849730013</v>
       </c>
       <c r="X32" t="n">
-        <v>1271.723194712968</v>
+        <v>1292.545099469083</v>
       </c>
       <c r="Y32" t="n">
-        <v>870.7865216610578</v>
+        <v>891.6084264171726</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>53.53669264073376</v>
       </c>
       <c r="J33" t="n">
-        <v>81.10741965574908</v>
+        <v>324.7758236303823</v>
       </c>
       <c r="K33" t="n">
-        <v>641.598143539846</v>
+        <v>819.5187656786889</v>
       </c>
       <c r="L33" t="n">
-        <v>766.2821107729823</v>
+        <v>944.2027329118251</v>
       </c>
       <c r="M33" t="n">
-        <v>919.6219511810189</v>
+        <v>1097.542573319862</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.855742078598</v>
+        <v>1260.776364217441</v>
       </c>
       <c r="O33" t="n">
-        <v>1223.183753384837</v>
+        <v>1401.10437552368</v>
       </c>
       <c r="P33" t="n">
-        <v>1586.998637446023</v>
+        <v>1505.900084304422</v>
       </c>
       <c r="Q33" t="n">
-        <v>2042.804675957584</v>
+        <v>1961.706122815983</v>
       </c>
       <c r="R33" t="n">
         <v>2042.804675957584</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1106.249515937051</v>
+        <v>367.5826509507039</v>
       </c>
       <c r="C34" t="n">
-        <v>935.1561434987671</v>
+        <v>196.4892785124204</v>
       </c>
       <c r="D34" t="n">
-        <v>775.661498821677</v>
+        <v>196.4892785124204</v>
       </c>
       <c r="E34" t="n">
-        <v>614.7506836899965</v>
+        <v>196.4892785124204</v>
       </c>
       <c r="F34" t="n">
-        <v>450.1195578005879</v>
+        <v>196.4892785124204</v>
       </c>
       <c r="G34" t="n">
-        <v>283.579225085528</v>
+        <v>45.29217970780581</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2848342136212</v>
+        <v>45.29217970780581</v>
       </c>
       <c r="I34" t="n">
         <v>45.29217970780581</v>
       </c>
       <c r="J34" t="n">
-        <v>108.5768527147801</v>
+        <v>108.5768527147802</v>
       </c>
       <c r="K34" t="n">
-        <v>343.9833838098535</v>
+        <v>343.9833838098536</v>
       </c>
       <c r="L34" t="n">
         <v>707.3460272792217</v>
@@ -6882,28 +6882,28 @@
         <v>2264.608985390291</v>
       </c>
       <c r="R34" t="n">
-        <v>2211.263072934566</v>
+        <v>2264.608985390291</v>
       </c>
       <c r="S34" t="n">
-        <v>2211.263072934566</v>
+        <v>2090.591597951688</v>
       </c>
       <c r="T34" t="n">
-        <v>2211.263072934566</v>
+        <v>1854.076744645813</v>
       </c>
       <c r="U34" t="n">
-        <v>2211.263072934566</v>
+        <v>1571.317327647904</v>
       </c>
       <c r="V34" t="n">
-        <v>2036.098447573773</v>
+        <v>1297.431582587426</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.028783082647</v>
+        <v>1018.3619180963</v>
       </c>
       <c r="X34" t="n">
-        <v>1518.68492094233</v>
+        <v>780.0180559559835</v>
       </c>
       <c r="Y34" t="n">
-        <v>1293.949222331095</v>
+        <v>555.2823573447482</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1690.72470927104</v>
+        <v>1216.229541316378</v>
       </c>
       <c r="C35" t="n">
-        <v>1280.60011858431</v>
+        <v>1156.948184223374</v>
       </c>
       <c r="D35" t="n">
-        <v>876.1361886773705</v>
+        <v>1156.948184223374</v>
       </c>
       <c r="E35" t="n">
-        <v>461.7959731942671</v>
+        <v>742.6079687402712</v>
       </c>
       <c r="F35" t="n">
-        <v>40.76556114795468</v>
+        <v>742.6079687402712</v>
       </c>
       <c r="G35" t="n">
-        <v>40.76556114795468</v>
+        <v>335.4626379423112</v>
       </c>
       <c r="H35" t="n">
         <v>40.76556114795468</v>
@@ -6937,22 +6937,22 @@
         <v>40.76556114795468</v>
       </c>
       <c r="J35" t="n">
-        <v>99.85280060515966</v>
+        <v>426.6286274928888</v>
       </c>
       <c r="K35" t="n">
-        <v>208.9583556544078</v>
+        <v>535.7341825421369</v>
       </c>
       <c r="L35" t="n">
-        <v>359.2586580185963</v>
+        <v>686.0344849063254</v>
       </c>
       <c r="M35" t="n">
-        <v>539.3228263314911</v>
+        <v>866.0986532192202</v>
       </c>
       <c r="N35" t="n">
-        <v>724.169213532408</v>
+        <v>1050.945040420137</v>
       </c>
       <c r="O35" t="n">
-        <v>907.0907348932681</v>
+        <v>1220.089461422318</v>
       </c>
       <c r="P35" t="n">
         <v>1411.564554099207</v>
@@ -6967,22 +6967,22 @@
         <v>2038.278057397734</v>
       </c>
       <c r="T35" t="n">
-        <v>1947.658564746793</v>
+        <v>1823.00095145565</v>
       </c>
       <c r="U35" t="n">
-        <v>1690.72470927104</v>
+        <v>1566.067095979897</v>
       </c>
       <c r="V35" t="n">
-        <v>1690.72470927104</v>
+        <v>1216.229541316378</v>
       </c>
       <c r="W35" t="n">
-        <v>1690.72470927104</v>
+        <v>1216.229541316378</v>
       </c>
       <c r="X35" t="n">
-        <v>1690.72470927104</v>
+        <v>1216.229541316378</v>
       </c>
       <c r="Y35" t="n">
-        <v>1690.72470927104</v>
+        <v>1216.229541316378</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>40.76556114795468</v>
       </c>
       <c r="I36" t="n">
-        <v>40.76556114795468</v>
+        <v>49.01007408088263</v>
       </c>
       <c r="J36" t="n">
-        <v>68.33628816297001</v>
+        <v>320.2492050705312</v>
       </c>
       <c r="K36" t="n">
-        <v>147.1117560460143</v>
+        <v>814.9921471188377</v>
       </c>
       <c r="L36" t="n">
-        <v>651.5855752519535</v>
+        <v>939.676114351974</v>
       </c>
       <c r="M36" t="n">
-        <v>1156.059394457893</v>
+        <v>1093.015954760011</v>
       </c>
       <c r="N36" t="n">
-        <v>1319.293185355472</v>
+        <v>1256.24974565759</v>
       </c>
       <c r="O36" t="n">
-        <v>1477.676310105431</v>
+        <v>1396.577756963829</v>
       </c>
       <c r="P36" t="n">
-        <v>1582.472018886172</v>
+        <v>1501.37346574457</v>
       </c>
       <c r="Q36" t="n">
-        <v>2038.278057397733</v>
+        <v>1957.179504256132</v>
       </c>
       <c r="R36" t="n">
         <v>2038.278057397733</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1006.730242871384</v>
+        <v>211.8589335862382</v>
       </c>
       <c r="C37" t="n">
-        <v>835.6368704331005</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="D37" t="n">
-        <v>676.1422257560105</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="E37" t="n">
-        <v>515.23141062433</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="F37" t="n">
-        <v>350.6002847349213</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="G37" t="n">
-        <v>184.0599520198615</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="H37" t="n">
         <v>40.76556114795468</v>
@@ -7098,19 +7098,19 @@
         <v>104.050234154929</v>
       </c>
       <c r="K37" t="n">
-        <v>133.1765716642882</v>
+        <v>339.4567652500024</v>
       </c>
       <c r="L37" t="n">
-        <v>481.0150992866643</v>
+        <v>702.8194087193705</v>
       </c>
       <c r="M37" t="n">
-        <v>879.3690640806631</v>
+        <v>1101.173373513369</v>
       </c>
       <c r="N37" t="n">
-        <v>1266.703840635707</v>
+        <v>1488.508150068413</v>
       </c>
       <c r="O37" t="n">
-        <v>1624.630738445815</v>
+        <v>1846.435047878521</v>
       </c>
       <c r="P37" t="n">
         <v>1914.475530938949</v>
@@ -7119,28 +7119,28 @@
         <v>2038.278057397734</v>
       </c>
       <c r="R37" t="n">
-        <v>1984.932144942009</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="S37" t="n">
-        <v>1810.914757503406</v>
+        <v>1864.260669959131</v>
       </c>
       <c r="T37" t="n">
-        <v>1574.399904197531</v>
+        <v>1698.353027281347</v>
       </c>
       <c r="U37" t="n">
-        <v>1291.640487199622</v>
+        <v>1415.593610283438</v>
       </c>
       <c r="V37" t="n">
-        <v>1194.429949265428</v>
+        <v>1141.70786522296</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.429949265428</v>
+        <v>862.6382007318346</v>
       </c>
       <c r="X37" t="n">
-        <v>1194.429949265428</v>
+        <v>624.2943385915179</v>
       </c>
       <c r="Y37" t="n">
-        <v>1194.429949265428</v>
+        <v>399.5586399802826</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>855.354081741624</v>
+        <v>1170.833265471727</v>
       </c>
       <c r="C38" t="n">
-        <v>445.2294910548941</v>
+        <v>1170.833265471727</v>
       </c>
       <c r="D38" t="n">
-        <v>40.76556114795468</v>
+        <v>1170.833265471727</v>
       </c>
       <c r="E38" t="n">
-        <v>40.76556114795468</v>
+        <v>756.4930499886236</v>
       </c>
       <c r="F38" t="n">
-        <v>40.76556114795468</v>
+        <v>335.4626379423112</v>
       </c>
       <c r="G38" t="n">
-        <v>40.76556114795468</v>
+        <v>335.4626379423112</v>
       </c>
       <c r="H38" t="n">
         <v>40.76556114795468</v>
@@ -7174,28 +7174,28 @@
         <v>40.76556114795468</v>
       </c>
       <c r="J38" t="n">
-        <v>426.6286274928888</v>
+        <v>99.85280060515966</v>
       </c>
       <c r="K38" t="n">
-        <v>535.7341825421369</v>
+        <v>208.9583556544078</v>
       </c>
       <c r="L38" t="n">
-        <v>686.0344849063254</v>
+        <v>640.3746902287426</v>
       </c>
       <c r="M38" t="n">
-        <v>866.0986532192202</v>
+        <v>1144.848509434682</v>
       </c>
       <c r="N38" t="n">
-        <v>1112.032188414027</v>
+        <v>1649.322328640621</v>
       </c>
       <c r="O38" t="n">
-        <v>1281.176609416208</v>
+        <v>1818.466749642801</v>
       </c>
       <c r="P38" t="n">
-        <v>1411.564554099207</v>
+        <v>1948.854694325801</v>
       </c>
       <c r="Q38" t="n">
-        <v>1900.264981195747</v>
+        <v>2027.260648271888</v>
       </c>
       <c r="R38" t="n">
         <v>2038.278057397734</v>
@@ -7204,22 +7204,22 @@
         <v>2038.278057397734</v>
       </c>
       <c r="T38" t="n">
-        <v>2038.278057397734</v>
+        <v>1981.697842967264</v>
       </c>
       <c r="U38" t="n">
-        <v>2038.278057397734</v>
+        <v>1981.697842967264</v>
       </c>
       <c r="V38" t="n">
-        <v>1688.440502734215</v>
+        <v>1981.697842967264</v>
       </c>
       <c r="W38" t="n">
-        <v>1688.440502734215</v>
+        <v>1981.697842967264</v>
       </c>
       <c r="X38" t="n">
-        <v>1287.797104903167</v>
+        <v>1581.054445136216</v>
       </c>
       <c r="Y38" t="n">
-        <v>886.8604318512572</v>
+        <v>1581.054445136216</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>40.76556114795468</v>
       </c>
       <c r="I39" t="n">
-        <v>40.76556114795468</v>
+        <v>49.01007408088263</v>
       </c>
       <c r="J39" t="n">
-        <v>68.33628816297001</v>
+        <v>320.2492050705312</v>
       </c>
       <c r="K39" t="n">
-        <v>147.1117560460143</v>
+        <v>814.9921471188377</v>
       </c>
       <c r="L39" t="n">
-        <v>271.7957232791506</v>
+        <v>939.676114351974</v>
       </c>
       <c r="M39" t="n">
-        <v>776.2695424850897</v>
+        <v>1093.015954760011</v>
       </c>
       <c r="N39" t="n">
-        <v>939.5033333826692</v>
+        <v>1256.24974565759</v>
       </c>
       <c r="O39" t="n">
-        <v>1443.977152588608</v>
+        <v>1396.577756963829</v>
       </c>
       <c r="P39" t="n">
-        <v>1948.450971794548</v>
+        <v>1501.37346574457</v>
       </c>
       <c r="Q39" t="n">
-        <v>2038.278057397733</v>
+        <v>1957.179504256132</v>
       </c>
       <c r="R39" t="n">
         <v>2038.278057397733</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1101.722897377199</v>
+        <v>366.3075021690439</v>
       </c>
       <c r="C40" t="n">
-        <v>930.6295249389159</v>
+        <v>366.3075021690439</v>
       </c>
       <c r="D40" t="n">
-        <v>771.1348802618259</v>
+        <v>366.3075021690439</v>
       </c>
       <c r="E40" t="n">
-        <v>610.2240651301454</v>
+        <v>205.3966870373634</v>
       </c>
       <c r="F40" t="n">
-        <v>445.5929392407367</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="G40" t="n">
-        <v>279.0526065256769</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7582156537701</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="I40" t="n">
         <v>40.76556114795468</v>
@@ -7335,49 +7335,49 @@
         <v>40.76556114795468</v>
       </c>
       <c r="K40" t="n">
-        <v>276.172092243028</v>
+        <v>241.4549822760814</v>
       </c>
       <c r="L40" t="n">
-        <v>639.5347357123961</v>
+        <v>604.8176257454495</v>
       </c>
       <c r="M40" t="n">
-        <v>879.3690640806631</v>
+        <v>1003.171590539448</v>
       </c>
       <c r="N40" t="n">
-        <v>1266.703840635707</v>
+        <v>1390.506367094492</v>
       </c>
       <c r="O40" t="n">
-        <v>1624.630738445815</v>
+        <v>1748.4332649046</v>
       </c>
       <c r="P40" t="n">
-        <v>1914.475530938949</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.278057397734</v>
       </c>
       <c r="R40" t="n">
-        <v>2031.571829013921</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="S40" t="n">
-        <v>2031.571829013921</v>
+        <v>1864.260669959131</v>
       </c>
       <c r="T40" t="n">
-        <v>2031.571829013921</v>
+        <v>1627.745816653256</v>
       </c>
       <c r="U40" t="n">
-        <v>2031.571829013921</v>
+        <v>1344.986399655347</v>
       </c>
       <c r="V40" t="n">
-        <v>2031.571829013921</v>
+        <v>1296.156433805766</v>
       </c>
       <c r="W40" t="n">
-        <v>1752.502164522796</v>
+        <v>1017.08676931464</v>
       </c>
       <c r="X40" t="n">
-        <v>1514.158302382479</v>
+        <v>778.7429071743236</v>
       </c>
       <c r="Y40" t="n">
-        <v>1289.422603771244</v>
+        <v>554.0072085630883</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>450.8901518346846</v>
+        <v>1575.297195378666</v>
       </c>
       <c r="C41" t="n">
-        <v>40.76556114795468</v>
+        <v>1575.297195378666</v>
       </c>
       <c r="D41" t="n">
-        <v>40.76556114795468</v>
+        <v>1170.833265471727</v>
       </c>
       <c r="E41" t="n">
-        <v>40.76556114795468</v>
+        <v>756.4930499886236</v>
       </c>
       <c r="F41" t="n">
-        <v>40.76556114795468</v>
+        <v>335.4626379423112</v>
       </c>
       <c r="G41" t="n">
-        <v>40.76556114795468</v>
+        <v>335.4626379423112</v>
       </c>
       <c r="H41" t="n">
         <v>40.76556114795468</v>
@@ -7411,22 +7411,22 @@
         <v>40.76556114795468</v>
       </c>
       <c r="J41" t="n">
-        <v>113.6299009638392</v>
+        <v>426.6286274928888</v>
       </c>
       <c r="K41" t="n">
-        <v>222.7354560130874</v>
+        <v>535.7341825421369</v>
       </c>
       <c r="L41" t="n">
-        <v>373.0357583772759</v>
+        <v>686.0344849063254</v>
       </c>
       <c r="M41" t="n">
-        <v>553.0999266901707</v>
+        <v>866.0986532192202</v>
       </c>
       <c r="N41" t="n">
-        <v>737.9463138910876</v>
+        <v>1050.945040420137</v>
       </c>
       <c r="O41" t="n">
-        <v>907.0907348932681</v>
+        <v>1220.089461422318</v>
       </c>
       <c r="P41" t="n">
         <v>1411.564554099207</v>
@@ -7438,25 +7438,25 @@
         <v>2038.278057397734</v>
       </c>
       <c r="S41" t="n">
-        <v>1939.06853072541</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="T41" t="n">
-        <v>1939.06853072541</v>
+        <v>1823.00095145565</v>
       </c>
       <c r="U41" t="n">
-        <v>1939.06853072541</v>
+        <v>1575.297195378666</v>
       </c>
       <c r="V41" t="n">
-        <v>1589.230976061891</v>
+        <v>1575.297195378666</v>
       </c>
       <c r="W41" t="n">
-        <v>1205.470675197059</v>
+        <v>1575.297195378666</v>
       </c>
       <c r="X41" t="n">
-        <v>851.8268248865945</v>
+        <v>1575.297195378666</v>
       </c>
       <c r="Y41" t="n">
-        <v>450.8901518346846</v>
+        <v>1575.297195378666</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>40.76556114795468</v>
       </c>
       <c r="I42" t="n">
-        <v>40.76556114795468</v>
+        <v>49.01007408088263</v>
       </c>
       <c r="J42" t="n">
-        <v>68.33628816297001</v>
+        <v>320.2492050705312</v>
       </c>
       <c r="K42" t="n">
-        <v>147.1117560460143</v>
+        <v>399.0246729535755</v>
       </c>
       <c r="L42" t="n">
-        <v>271.7957232791506</v>
+        <v>523.7086401867118</v>
       </c>
       <c r="M42" t="n">
-        <v>776.2695424850897</v>
+        <v>1028.182459392651</v>
       </c>
       <c r="N42" t="n">
-        <v>939.5033333826692</v>
+        <v>1298.074094761663</v>
       </c>
       <c r="O42" t="n">
-        <v>1443.977152588608</v>
+        <v>1802.547913967603</v>
       </c>
       <c r="P42" t="n">
-        <v>1948.450971794548</v>
+        <v>1907.343622748344</v>
       </c>
       <c r="Q42" t="n">
-        <v>2038.278057397733</v>
+        <v>1957.179504256132</v>
       </c>
       <c r="R42" t="n">
         <v>2038.278057397733</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>535.9847041527369</v>
+        <v>918.9428311209858</v>
       </c>
       <c r="C43" t="n">
-        <v>364.8913317144534</v>
+        <v>747.8494586827023</v>
       </c>
       <c r="D43" t="n">
-        <v>205.3966870373634</v>
+        <v>588.3548140056123</v>
       </c>
       <c r="E43" t="n">
-        <v>205.3966870373634</v>
+        <v>588.3548140056123</v>
       </c>
       <c r="F43" t="n">
-        <v>40.76556114795468</v>
+        <v>423.7236881162036</v>
       </c>
       <c r="G43" t="n">
-        <v>40.76556114795468</v>
+        <v>257.1833554011437</v>
       </c>
       <c r="H43" t="n">
-        <v>40.76556114795468</v>
+        <v>135.7582156537701</v>
       </c>
       <c r="I43" t="n">
         <v>40.76556114795468</v>
       </c>
       <c r="J43" t="n">
-        <v>104.050234154929</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="K43" t="n">
-        <v>339.4567652500024</v>
+        <v>241.4549822760814</v>
       </c>
       <c r="L43" t="n">
-        <v>702.8194087193705</v>
+        <v>604.8176257454495</v>
       </c>
       <c r="M43" t="n">
-        <v>1101.173373513369</v>
+        <v>1003.171590539448</v>
       </c>
       <c r="N43" t="n">
         <v>1390.506367094492</v>
@@ -7593,28 +7593,28 @@
         <v>2038.278057397734</v>
       </c>
       <c r="R43" t="n">
-        <v>1984.932144942009</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="S43" t="n">
-        <v>1810.914757503406</v>
+        <v>1864.260669959131</v>
       </c>
       <c r="T43" t="n">
-        <v>1810.914757503406</v>
+        <v>1627.745816653256</v>
       </c>
       <c r="U43" t="n">
-        <v>1739.719380849937</v>
+        <v>1344.986399655347</v>
       </c>
       <c r="V43" t="n">
-        <v>1465.833635789459</v>
+        <v>1344.986399655347</v>
       </c>
       <c r="W43" t="n">
-        <v>1186.763971298333</v>
+        <v>1344.986399655347</v>
       </c>
       <c r="X43" t="n">
-        <v>948.4201091580165</v>
+        <v>1106.64253751503</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.6844105467812</v>
+        <v>1106.64253751503</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1628.056877733244</v>
+        <v>1466.857569307573</v>
       </c>
       <c r="C44" t="n">
-        <v>1280.60011858431</v>
+        <v>1056.732978620843</v>
       </c>
       <c r="D44" t="n">
-        <v>876.1361886773705</v>
+        <v>1056.732978620843</v>
       </c>
       <c r="E44" t="n">
-        <v>461.7959731942671</v>
+        <v>642.3927631377401</v>
       </c>
       <c r="F44" t="n">
-        <v>40.76556114795468</v>
+        <v>221.3623510914276</v>
       </c>
       <c r="G44" t="n">
-        <v>40.76556114795468</v>
+        <v>221.3623510914276</v>
       </c>
       <c r="H44" t="n">
         <v>40.76556114795468</v>
@@ -7651,22 +7651,22 @@
         <v>426.6286274928888</v>
       </c>
       <c r="K44" t="n">
-        <v>931.1024466988279</v>
+        <v>535.7341825421369</v>
       </c>
       <c r="L44" t="n">
-        <v>1081.402749063016</v>
+        <v>686.0344849063254</v>
       </c>
       <c r="M44" t="n">
-        <v>1261.466917375911</v>
+        <v>866.0986532192202</v>
       </c>
       <c r="N44" t="n">
-        <v>1522.32666156448</v>
+        <v>1050.945040420137</v>
       </c>
       <c r="O44" t="n">
-        <v>1691.47108256666</v>
+        <v>1220.089461422318</v>
       </c>
       <c r="P44" t="n">
-        <v>1821.85902724966</v>
+        <v>1411.564554099207</v>
       </c>
       <c r="Q44" t="n">
         <v>1900.264981195747</v>
@@ -7675,25 +7675,25 @@
         <v>2038.278057397734</v>
       </c>
       <c r="S44" t="n">
-        <v>2038.278057397734</v>
+        <v>1939.06853072541</v>
       </c>
       <c r="T44" t="n">
-        <v>2038.278057397734</v>
+        <v>1723.791424783326</v>
       </c>
       <c r="U44" t="n">
-        <v>2038.278057397734</v>
+        <v>1466.857569307573</v>
       </c>
       <c r="V44" t="n">
-        <v>2038.278057397734</v>
+        <v>1466.857569307573</v>
       </c>
       <c r="W44" t="n">
-        <v>2038.278057397734</v>
+        <v>1466.857569307573</v>
       </c>
       <c r="X44" t="n">
-        <v>2038.278057397734</v>
+        <v>1466.857569307573</v>
       </c>
       <c r="Y44" t="n">
-        <v>2038.278057397734</v>
+        <v>1466.857569307573</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>40.76556114795468</v>
       </c>
       <c r="I45" t="n">
-        <v>40.76556114795468</v>
+        <v>49.01007408088263</v>
       </c>
       <c r="J45" t="n">
-        <v>312.0046921376032</v>
+        <v>320.2492050705312</v>
       </c>
       <c r="K45" t="n">
-        <v>816.4785113435423</v>
+        <v>814.9921471188384</v>
       </c>
       <c r="L45" t="n">
-        <v>941.1624785766786</v>
+        <v>939.6761143519747</v>
       </c>
       <c r="M45" t="n">
-        <v>1094.502318984715</v>
+        <v>1093.015954760011</v>
       </c>
       <c r="N45" t="n">
-        <v>1379.172647903266</v>
+        <v>1256.249745657591</v>
       </c>
       <c r="O45" t="n">
-        <v>1883.646467109205</v>
+        <v>1396.57775696383</v>
       </c>
       <c r="P45" t="n">
-        <v>1988.442175889946</v>
+        <v>1501.373465744571</v>
       </c>
       <c r="Q45" t="n">
-        <v>2038.278057397734</v>
+        <v>1957.179504256132</v>
       </c>
       <c r="R45" t="n">
         <v>2038.278057397734</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1101.722897377199</v>
+        <v>941.424666587498</v>
       </c>
       <c r="C46" t="n">
-        <v>930.6295249389159</v>
+        <v>770.3312941492145</v>
       </c>
       <c r="D46" t="n">
-        <v>771.1348802618259</v>
+        <v>610.8366494721245</v>
       </c>
       <c r="E46" t="n">
-        <v>610.2240651301454</v>
+        <v>449.9258343404439</v>
       </c>
       <c r="F46" t="n">
-        <v>445.5929392407367</v>
+        <v>285.2947084510352</v>
       </c>
       <c r="G46" t="n">
-        <v>279.0526065256769</v>
+        <v>118.7543757359754</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7582156537701</v>
+        <v>40.76556114795468</v>
       </c>
       <c r="I46" t="n">
         <v>40.76556114795468</v>
@@ -7809,49 +7809,49 @@
         <v>40.76556114795468</v>
       </c>
       <c r="K46" t="n">
-        <v>276.172092243028</v>
+        <v>241.4549822760814</v>
       </c>
       <c r="L46" t="n">
-        <v>639.5347357123961</v>
+        <v>604.8176257454495</v>
       </c>
       <c r="M46" t="n">
-        <v>1037.888700506395</v>
+        <v>1003.171590539448</v>
       </c>
       <c r="N46" t="n">
-        <v>1266.703840635707</v>
+        <v>1390.506367094492</v>
       </c>
       <c r="O46" t="n">
-        <v>1624.630738445815</v>
+        <v>1748.4332649046</v>
       </c>
       <c r="P46" t="n">
-        <v>1914.475530938949</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.278057397734</v>
       </c>
       <c r="R46" t="n">
-        <v>2031.571829013921</v>
+        <v>2038.278057397734</v>
       </c>
       <c r="S46" t="n">
-        <v>2031.571829013921</v>
+        <v>1864.260669959131</v>
       </c>
       <c r="T46" t="n">
-        <v>2031.571829013921</v>
+        <v>1627.745816653256</v>
       </c>
       <c r="U46" t="n">
-        <v>2031.571829013921</v>
+        <v>1627.745816653256</v>
       </c>
       <c r="V46" t="n">
-        <v>2031.571829013921</v>
+        <v>1353.860071592778</v>
       </c>
       <c r="W46" t="n">
-        <v>1752.502164522796</v>
+        <v>1353.860071592778</v>
       </c>
       <c r="X46" t="n">
-        <v>1514.158302382479</v>
+        <v>1353.860071592778</v>
       </c>
       <c r="Y46" t="n">
-        <v>1289.422603771244</v>
+        <v>1129.124372981542</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>361.0320988799149</v>
       </c>
       <c r="M2" t="n">
-        <v>399.8032340514538</v>
+        <v>546.2770068083396</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>546.1765579770773</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>546.6361456321783</v>
@@ -8002,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,10 +8063,10 @@
         <v>508.8125651359096</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>365.7887825505099</v>
       </c>
       <c r="M3" t="n">
-        <v>397.0966428443712</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>542.1231720245113</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>361.0320988799149</v>
       </c>
       <c r="M5" t="n">
-        <v>546.2770068083396</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>527.5965768512955</v>
+        <v>545.8990731079135</v>
       </c>
       <c r="O5" t="n">
-        <v>546.1765579770773</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>546.6361456321783</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>508.8125651359096</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>266.1802473547543</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>510.5510660897116</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>506.1801757450442</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>510.7382613512942</v>
       </c>
       <c r="P6" t="n">
-        <v>507.2464173540979</v>
+        <v>488.9439210974801</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>183.6028200590023</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>548.472180414139</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>546.2770068083396</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>545.8990731079135</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>546.1765579770773</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>359.1960640979543</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>508.8125651359096</v>
       </c>
       <c r="L9" t="n">
-        <v>509.1013061621432</v>
+        <v>490.7988099055252</v>
       </c>
       <c r="M9" t="n">
         <v>510.5510660897116</v>
       </c>
       <c r="N9" t="n">
-        <v>506.1801757450442</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>135.5656739419415</v>
+        <v>507.2464173540979</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>399.3618829865566</v>
+        <v>391.7807827087065</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>205.0596202664574</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.43766759269641</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>428.4969566648393</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>52.34511743996211</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>367.8240483835357</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.734030933699088</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>157.0297725346376</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>124.4061010925043</v>
       </c>
       <c r="N13" t="n">
         <v>335.3881832803894</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11.43766759269641</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>420.1691658234972</v>
       </c>
       <c r="L15" t="n">
-        <v>67.02851088592507</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>367.8240483835357</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>403.7152630557553</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.734030933699088</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
@@ -9093,13 +9093,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>124.4061010925043</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
-        <v>158.136487871726</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>13.91626298856524</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>327.6865160535801</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>276.734987199434</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>377.8645197201411</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>429.9983346695907</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>236.3005321383853</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>367.8240483835357</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>32.41764843074878</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9333,16 +9333,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>111.3434262776557</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>164.5411116153505</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>2.496397724294845</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>399.3618829865566</v>
+        <v>153.2870597366875</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,13 +9412,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>322.8559919242649</v>
       </c>
       <c r="O20" t="n">
-        <v>28.99324177014273</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>377.8645197201411</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9482,16 +9482,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>420.1691658234972</v>
       </c>
       <c r="L21" t="n">
-        <v>130.8723475381552</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>354.680786664548</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>344.6868972811712</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9564,13 +9564,13 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>93.10586040638066</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>111.3434262776557</v>
       </c>
       <c r="O22" t="n">
         <v>318.2573327462026</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>455.9446149846958</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>434.4472517182803</v>
+        <v>414.0273984876133</v>
       </c>
       <c r="Q23" t="n">
-        <v>139.8725347765971</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>11.43766759269641</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>486.58106666773</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>41.78890121566505</v>
       </c>
       <c r="P24" t="n">
-        <v>269.963321427649</v>
+        <v>460.2979950538945</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>414.1325011447286</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>414.3337591110187</v>
       </c>
       <c r="M26" t="n">
-        <v>384.2692480517194</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>211.5479017095735</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>434.4472517182803</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>11.43766759269641</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>451.8597668760424</v>
       </c>
       <c r="L27" t="n">
-        <v>440.2088451019805</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.4067803816749</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>55.86992728762286</v>
+        <v>460.2979950538945</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>414.3337591110187</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>220.6313465282348</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>395.2992958403198</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>285.7489468955514</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>11.43766759269641</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>486.58106666773</v>
       </c>
       <c r="L30" t="n">
-        <v>440.2088451019805</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>157.9076115399835</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>22.44639862746543</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>414.3337591110187</v>
       </c>
       <c r="M32" t="n">
-        <v>236.4919184461504</v>
+        <v>384.2692480517194</v>
       </c>
       <c r="N32" t="n">
-        <v>379.4387239224042</v>
+        <v>29.86325309300918</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>486.58106666773</v>
+        <v>420.1691658234972</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>261.6355305863076</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>6.940569025636016</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.91626298856531</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>377.8645197201411</v>
+        <v>61.70418989281848</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>11.43766759269641</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>420.1691658234972</v>
       </c>
       <c r="L36" t="n">
-        <v>383.6261131038412</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>354.680786664548</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>18.23748832698919</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>6.940569025636016</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>301.4696923111425</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10761,7 +10761,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>39.48805458627449</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>283.9555880910568</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>327.6865160535802</v>
       </c>
       <c r="N38" t="n">
-        <v>61.7041898928185</v>
+        <v>322.8559919242649</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>11.43766759269641</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>420.1691658234972</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>354.680786664548</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>367.8240483835357</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>403.7152630557553</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.39515565191732</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>6.940569025636016</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,13 +10983,13 @@
         <v>1.734030933699088</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>173.2960440593611</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>188.3300132207613</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
@@ -11001,7 +11001,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>2.496397724294845</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>13.91626298856524</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>377.8645197201411</v>
+        <v>61.70418989281848</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>11.43766759269641</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>354.680786664548</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>107.7351964357908</v>
       </c>
       <c r="O42" t="n">
         <v>367.8240483835357</v>
       </c>
       <c r="P42" t="n">
-        <v>403.7152630557553</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.39515565191732</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.940569025636016</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>1.734030933699088</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>173.2960440593611</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11229,7 +11229,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>236.3964833067317</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
@@ -11299,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>399.3618829865566</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11308,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>76.78116867439593</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>61.70418989281848</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.43766759269641</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>429.9983346695907</v>
+        <v>420.1691658234978</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>122.6631697181525</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>367.8240483835357</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>6.940569025636016</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>1.734030933699088</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>173.2960440593611</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11466,7 +11466,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>175.2673384059129</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
@@ -11475,7 +11475,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>2.496397724294845</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>403.0738774899803</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.21743140560065</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3645169209957</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>117.1867206156264</v>
+        <v>252.4139770830915</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>122.7135918529781</v>
+        <v>92.85837235156346</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23430,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.8749293879092</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>141.8614469631877</v>
       </c>
       <c r="I13" t="n">
-        <v>94.04272796075722</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.1243348826627</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.3645169209957</v>
       </c>
       <c r="V14" t="n">
-        <v>55.72121359183041</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>323.5115211394275</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>47.99167654454008</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>172.2772135642168</v>
       </c>
       <c r="T16" t="n">
-        <v>234.1497047728167</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9318228279296</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>264.5077215098989</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>340.0637136607274</v>
       </c>
       <c r="G17" t="n">
-        <v>403.0738774899803</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>291.7501060264129</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>25.07170567739201</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>98.21743140560065</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.84933334096417</v>
+        <v>254.3645169209957</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>42.38014677109754</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.8749293879092</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.46992770092479</v>
+        <v>94.04272796075722</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>127.7014797132974</v>
+        <v>403.0738774899803</v>
       </c>
       <c r="H20" t="n">
         <v>291.7501060264129</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.1243348826627</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.9343039342622887</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>88.26055392201607</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>94.04272796075722</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>22.03631691663696</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9318228279296</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24220,10 +24220,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>317.6789402324359</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>291.7501060264129</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>25.07170567739201</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>98.21743140560065</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>138.6761657247023</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>74.61318863482681</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S25" t="n">
-        <v>172.2772135642168</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>234.1497047728167</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9318228279296</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>97.73390850268774</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>90.78980664310149</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>403.0738774899803</v>
       </c>
       <c r="H26" t="n">
         <v>291.7501060264129</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>98.21743140560065</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>213.1243348826627</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3645169209957</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>145.4552043548953</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5.109069837803901</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.8614469631877</v>
       </c>
       <c r="I28" t="n">
         <v>94.04272796075722</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2772135642168</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>190.4905711984569</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>309.943738687697</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>403.0738774899803</v>
       </c>
       <c r="H29" t="n">
         <v>291.7501060264129</v>
@@ -24733,22 +24733,22 @@
         <v>98.21743140560065</v>
       </c>
       <c r="T29" t="n">
-        <v>213.1243348826627</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3645169209957</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>191.5795205423383</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.8749293879092</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.8614469631877</v>
+        <v>97.54772153992027</v>
       </c>
       <c r="I31" t="n">
         <v>94.04272796075722</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.05151716106526</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S31" t="n">
-        <v>172.2772135642168</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>403.0738774899803</v>
+        <v>273.7910071999695</v>
       </c>
       <c r="H32" t="n">
-        <v>291.7501060264129</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>25.07170567739201</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>98.21743140560065</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.1243348826627</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3645169209957</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>139.9419080552543</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15.18980157134084</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.8614469631877</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>94.04272796075722</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S34" t="n">
-        <v>172.2772135642168</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>234.1497047728167</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9318228279296</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>97.73390850268774</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>347.3348012577894</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>403.0738774899803</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>291.7501060264129</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>25.07170567739201</v>
@@ -25207,13 +25207,13 @@
         <v>98.21743140560065</v>
       </c>
       <c r="T35" t="n">
-        <v>123.4110371582315</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.8749293879092</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.8614469631877</v>
       </c>
       <c r="I37" t="n">
         <v>94.04272796075722</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>69.90113852181031</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>174.9084550550216</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.9276812593077</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>403.0738774899803</v>
       </c>
       <c r="H38" t="n">
-        <v>291.7501060264129</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>25.07170567739201</v>
@@ -25444,13 +25444,13 @@
         <v>98.21743140560065</v>
       </c>
       <c r="T38" t="n">
-        <v>213.1243348826627</v>
+        <v>157.1099225964974</v>
       </c>
       <c r="U38" t="n">
         <v>254.3645169209957</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.8749293879092</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>141.8614469631877</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>94.04272796075722</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.17328723119334</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S40" t="n">
-        <v>172.2772135642168</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>234.1497047728167</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9318228279296</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>222.8052214187881</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>403.0738774899803</v>
       </c>
       <c r="H41" t="n">
-        <v>291.7501060264129</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>25.07170567739201</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>98.21743140560065</v>
       </c>
       <c r="T41" t="n">
-        <v>213.1243348826627</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3645169209957</v>
+        <v>9.137798404781734</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>46.52955204537682</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.8749293879092</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>141.8614469631877</v>
+        <v>21.65055861328783</v>
       </c>
       <c r="I43" t="n">
-        <v>94.04272796075722</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>234.1497047728167</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>209.448399940995</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>62.04115322241745</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>403.0738774899803</v>
       </c>
       <c r="H44" t="n">
-        <v>291.7501060264129</v>
+        <v>112.9592839823747</v>
       </c>
       <c r="I44" t="n">
         <v>25.07170567739201</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>98.21743140560065</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.1243348826627</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3645169209957</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>64.65252052104726</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>94.04272796075722</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.17328723119334</v>
+        <v>52.81245333116767</v>
       </c>
       <c r="S46" t="n">
-        <v>172.2772135642168</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>234.1497047728167</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9318228279296</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>500788.6134026866</v>
+        <v>500788.6134026867</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500788.6134026867</v>
+        <v>500788.6134026866</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>532752.8803806119</v>
+        <v>532752.8803806118</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>532752.8803806118</v>
+        <v>532752.880380612</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>532752.8803806119</v>
+        <v>532752.8803806118</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500788.6134026868</v>
+        <v>500788.6134026865</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500788.6134026866</v>
+        <v>500788.6134026865</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500788.6134026866</v>
+        <v>500788.6134026868</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>500788.6134026867</v>
+        <v>500788.6134026866</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778969</v>
+        <v>390917.7432778968</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778968</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="D2" t="n">
         <v>390917.7432778967</v>
@@ -26325,22 +26325,22 @@
         <v>239514.4344197876</v>
       </c>
       <c r="F2" t="n">
+        <v>239514.4344197876</v>
+      </c>
+      <c r="G2" t="n">
         <v>239514.4344197877</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>239514.4344197876</v>
       </c>
-      <c r="H2" t="n">
-        <v>239514.4344197877</v>
-      </c>
       <c r="I2" t="n">
-        <v>253163.9167353812</v>
+        <v>253163.9167353813</v>
       </c>
       <c r="J2" t="n">
         <v>253163.9167353812</v>
       </c>
       <c r="K2" t="n">
-        <v>253163.9167353812</v>
+        <v>253163.9167353813</v>
       </c>
       <c r="L2" t="n">
         <v>253163.9167353811</v>
@@ -26352,10 +26352,10 @@
         <v>239514.4344197875</v>
       </c>
       <c r="O2" t="n">
+        <v>239514.4344197876</v>
+      </c>
+      <c r="P2" t="n">
         <v>239514.4344197877</v>
-      </c>
-      <c r="P2" t="n">
-        <v>239514.4344197875</v>
       </c>
     </row>
     <row r="3">
@@ -26432,7 +26432,7 @@
         <v>42161.15474120347</v>
       </c>
       <c r="G4" t="n">
-        <v>42161.15474120348</v>
+        <v>42161.15474120347</v>
       </c>
       <c r="H4" t="n">
         <v>42161.15474120347</v>
@@ -26441,7 +26441,7 @@
         <v>47998.73050281249</v>
       </c>
       <c r="J4" t="n">
-        <v>47998.73050281248</v>
+        <v>47998.7305028125</v>
       </c>
       <c r="K4" t="n">
         <v>47998.73050281248</v>
@@ -26450,16 +26450,16 @@
         <v>47998.73050281248</v>
       </c>
       <c r="M4" t="n">
-        <v>42161.15474120346</v>
+        <v>42161.15474120347</v>
       </c>
       <c r="N4" t="n">
         <v>42161.15474120347</v>
       </c>
       <c r="O4" t="n">
-        <v>42161.15474120346</v>
+        <v>42161.15474120347</v>
       </c>
       <c r="P4" t="n">
-        <v>42161.15474120349</v>
+        <v>42161.15474120347</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84019.33961879322</v>
+        <v>-84019.33961879332</v>
       </c>
       <c r="C6" t="n">
-        <v>67786.94984311942</v>
+        <v>67786.94984311929</v>
       </c>
       <c r="D6" t="n">
-        <v>67786.94984311932</v>
+        <v>67786.94984311929</v>
       </c>
       <c r="E6" t="n">
-        <v>-172205.2220521521</v>
+        <v>-172836.0691723942</v>
       </c>
       <c r="F6" t="n">
-        <v>157873.3327492065</v>
+        <v>157242.4856289644</v>
       </c>
       <c r="G6" t="n">
-        <v>157873.3327492065</v>
+        <v>157242.4856289644</v>
       </c>
       <c r="H6" t="n">
-        <v>157873.3327492065</v>
+        <v>157242.4856289643</v>
       </c>
       <c r="I6" t="n">
-        <v>147198.472522027</v>
+        <v>146624.4982447666</v>
       </c>
       <c r="J6" t="n">
-        <v>43723.73551618222</v>
+        <v>43149.76123892172</v>
       </c>
       <c r="K6" t="n">
-        <v>162245.0091977042</v>
+        <v>161671.0349204438</v>
       </c>
       <c r="L6" t="n">
-        <v>162245.0091977041</v>
+        <v>161671.0349204436</v>
       </c>
       <c r="M6" t="n">
-        <v>157873.3327492065</v>
+        <v>157242.4856289644</v>
       </c>
       <c r="N6" t="n">
-        <v>157873.3327492064</v>
+        <v>157242.4856289643</v>
       </c>
       <c r="O6" t="n">
-        <v>157873.3327492065</v>
+        <v>157242.4856289644</v>
       </c>
       <c r="P6" t="n">
-        <v>157873.3327492064</v>
+        <v>157242.4856289644</v>
       </c>
     </row>
   </sheetData>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>220.1038023495256</v>
       </c>
       <c r="D2" t="n">
-        <v>46.23097191868482</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>22.26308684702742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>72.69589618992907</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27554,10 +27554,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>34.94702735089786</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>176.9910942298802</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.470403714986787</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>186.5202836102266</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>129.1731966338618</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>71.57214108368464</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>48.36516389164242</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -27839,10 +27839,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>102.3218941895674</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>230.1057258007362</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>71.57214108368464</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>161.1630891562582</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>70.43669735679197</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28073,13 +28073,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>125.5464563330408</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34704,16 +34704,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>265.5467008170701</v>
       </c>
       <c r="M2" t="n">
-        <v>306.5130095944084</v>
+        <v>452.9867823512942</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>452.9867823512942</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>452.9867823512942</v>
@@ -34722,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,10 +34783,10 @@
         <v>452.9867823512942</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>309.6742587396608</v>
       </c>
       <c r="M3" t="n">
-        <v>339.5323591059538</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>452.9867823512942</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>265.5467008170701</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>452.9867823512942</v>
       </c>
-      <c r="N5" t="n">
-        <v>434.6842860946762</v>
-      </c>
       <c r="O5" t="n">
-        <v>452.9867823512942</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>452.9867823512942</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>452.9867823512942</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>210.0657235439053</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>452.9867823512942</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>452.9867823512942</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>452.9867823512942</v>
       </c>
       <c r="P6" t="n">
-        <v>452.9867823512942</v>
+        <v>434.6842860946763</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2792287256944</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9867823512942</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>452.9867823512942</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>452.9867823512942</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>452.9867823512942</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>265.5467008170701</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>452.9867823512942</v>
       </c>
       <c r="L9" t="n">
-        <v>452.9867823512942</v>
+        <v>434.6842860946762</v>
       </c>
       <c r="M9" t="n">
         <v>452.9867823512942</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>452.9867823512942</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>81.30603893913772</v>
-      </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>389.760673075691</v>
+        <v>59.68408025980301</v>
       </c>
       <c r="K11" t="n">
-        <v>509.5695143494335</v>
+        <v>501.9884140715833</v>
       </c>
       <c r="L11" t="n">
         <v>151.8184872365541</v>
@@ -35427,13 +35427,13 @@
         <v>170.852950507253</v>
       </c>
       <c r="P11" t="n">
-        <v>336.7646148957497</v>
+        <v>131.7049946292924</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.19793327887629</v>
+        <v>493.6367950470102</v>
       </c>
       <c r="R11" t="n">
-        <v>11.12869608671251</v>
+        <v>139.4071476787742</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.327790841341365</v>
       </c>
       <c r="J12" t="n">
         <v>273.9789201915642</v>
       </c>
       <c r="K12" t="n">
-        <v>508.068136344682</v>
+        <v>79.57117967984271</v>
       </c>
       <c r="L12" t="n">
         <v>125.9434012455922</v>
@@ -35500,10 +35500,10 @@
         <v>154.8887276848855</v>
       </c>
       <c r="N12" t="n">
-        <v>164.8826170682622</v>
+        <v>217.2277345082243</v>
       </c>
       <c r="O12" t="n">
-        <v>141.7454659658978</v>
+        <v>509.5695143494335</v>
       </c>
       <c r="P12" t="n">
         <v>105.8542512936782</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>63.92391212825686</v>
       </c>
       <c r="K13" t="n">
         <v>237.7843748435085</v>
       </c>
       <c r="L13" t="n">
-        <v>206.9121283269053</v>
+        <v>367.0329732013819</v>
       </c>
       <c r="M13" t="n">
-        <v>402.3777422161604</v>
+        <v>178.3329852134269</v>
       </c>
       <c r="N13" t="n">
         <v>391.2472490454986</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.327790841341365</v>
       </c>
       <c r="J15" t="n">
         <v>273.9789201915642</v>
       </c>
       <c r="K15" t="n">
-        <v>79.57117967984271</v>
+        <v>499.7403455033399</v>
       </c>
       <c r="L15" t="n">
-        <v>192.9719121315173</v>
+        <v>125.9434012455922</v>
       </c>
       <c r="M15" t="n">
         <v>154.8887276848855</v>
@@ -35740,13 +35740,13 @@
         <v>164.8826170682622</v>
       </c>
       <c r="O15" t="n">
-        <v>509.5695143494335</v>
+        <v>141.7454659658978</v>
       </c>
       <c r="P15" t="n">
-        <v>509.5695143494335</v>
+        <v>105.8542512936782</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.3392742502904</v>
+        <v>460.4101399106679</v>
       </c>
       <c r="R15" t="n">
         <v>81.91773044606222</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>63.92391212825686</v>
       </c>
       <c r="K16" t="n">
         <v>237.7843748435085</v>
@@ -35813,13 +35813,13 @@
         <v>367.0329732013819</v>
       </c>
       <c r="M16" t="n">
-        <v>402.3777422161604</v>
+        <v>178.3329852134269</v>
       </c>
       <c r="N16" t="n">
         <v>391.2472490454986</v>
       </c>
       <c r="O16" t="n">
-        <v>201.421476145835</v>
+        <v>361.5423210203115</v>
       </c>
       <c r="P16" t="n">
         <v>292.7725176698319</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>389.760673075691</v>
+        <v>73.60034324836825</v>
       </c>
       <c r="K17" t="n">
         <v>110.2076313628769</v>
@@ -35892,22 +35892,22 @@
         <v>151.8184872365541</v>
       </c>
       <c r="M17" t="n">
-        <v>509.5695143494335</v>
+        <v>181.8829982958533</v>
       </c>
       <c r="N17" t="n">
         <v>186.7135224251685</v>
       </c>
       <c r="O17" t="n">
-        <v>447.587937706687</v>
+        <v>170.852950507253</v>
       </c>
       <c r="P17" t="n">
-        <v>131.7049946292924</v>
+        <v>509.5695143494335</v>
       </c>
       <c r="Q17" t="n">
-        <v>79.19793327887629</v>
+        <v>493.6367950470102</v>
       </c>
       <c r="R17" t="n">
-        <v>11.12869608671251</v>
+        <v>139.4071476787742</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>8.327790841341365</v>
       </c>
       <c r="J18" t="n">
-        <v>27.84921920708619</v>
+        <v>273.9789201915642</v>
       </c>
       <c r="K18" t="n">
         <v>509.5695143494335</v>
@@ -35974,16 +35974,16 @@
         <v>154.8887276848855</v>
       </c>
       <c r="N18" t="n">
-        <v>401.1831492066474</v>
+        <v>164.8826170682622</v>
       </c>
       <c r="O18" t="n">
-        <v>141.7454659658978</v>
+        <v>509.5695143494335</v>
       </c>
       <c r="P18" t="n">
-        <v>105.8542512936782</v>
+        <v>138.271899724427</v>
       </c>
       <c r="Q18" t="n">
-        <v>460.4101399106679</v>
+        <v>50.3392742502904</v>
       </c>
       <c r="R18" t="n">
         <v>81.91773044606222</v>
@@ -36053,16 +36053,16 @@
         <v>402.3777422161604</v>
       </c>
       <c r="N19" t="n">
-        <v>167.202492042765</v>
+        <v>391.2472490454986</v>
       </c>
       <c r="O19" t="n">
         <v>361.5423210203115</v>
       </c>
       <c r="P19" t="n">
-        <v>292.7725176698319</v>
+        <v>193.7808176961742</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.053057029076</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>59.68408025980301</v>
+        <v>389.760673075691</v>
       </c>
       <c r="K20" t="n">
-        <v>509.5695143494335</v>
+        <v>263.4946910995644</v>
       </c>
       <c r="L20" t="n">
         <v>151.8184872365541</v>
@@ -36132,13 +36132,13 @@
         <v>181.8829982958533</v>
       </c>
       <c r="N20" t="n">
-        <v>186.7135224251685</v>
+        <v>509.5695143494335</v>
       </c>
       <c r="O20" t="n">
-        <v>199.8461922773957</v>
+        <v>170.852950507253</v>
       </c>
       <c r="P20" t="n">
-        <v>509.5695143494335</v>
+        <v>131.7049946292924</v>
       </c>
       <c r="Q20" t="n">
         <v>79.19793327887629</v>
@@ -36202,16 +36202,16 @@
         <v>273.9789201915642</v>
       </c>
       <c r="K21" t="n">
-        <v>79.57117967984271</v>
+        <v>499.7403455033399</v>
       </c>
       <c r="L21" t="n">
-        <v>256.8157487837474</v>
+        <v>125.9434012455922</v>
       </c>
       <c r="M21" t="n">
-        <v>509.5695143494335</v>
+        <v>154.8887276848855</v>
       </c>
       <c r="N21" t="n">
-        <v>509.5695143494335</v>
+        <v>164.8826170682622</v>
       </c>
       <c r="O21" t="n">
         <v>141.7454659658978</v>
@@ -36220,7 +36220,7 @@
         <v>105.8542512936782</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.3392742502904</v>
+        <v>460.4101399106679</v>
       </c>
       <c r="R21" t="n">
         <v>81.91773044606222</v>
@@ -36284,13 +36284,13 @@
         <v>237.7843748435085</v>
       </c>
       <c r="L22" t="n">
-        <v>142.9882161986484</v>
+        <v>367.0329732013819</v>
       </c>
       <c r="M22" t="n">
         <v>402.3777422161604</v>
       </c>
       <c r="N22" t="n">
-        <v>391.2472490454986</v>
+        <v>167.202492042765</v>
       </c>
       <c r="O22" t="n">
         <v>361.5423210203115</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>59.68408025980301</v>
+        <v>389.760673075691</v>
       </c>
       <c r="K23" t="n">
-        <v>566.1522463475727</v>
+        <v>110.2076313628769</v>
       </c>
       <c r="L23" t="n">
         <v>151.8184872365541</v>
@@ -36375,13 +36375,13 @@
         <v>170.852950507253</v>
       </c>
       <c r="P23" t="n">
-        <v>566.1522463475727</v>
+        <v>545.7323931169057</v>
       </c>
       <c r="Q23" t="n">
-        <v>219.0704680554734</v>
+        <v>493.6367950470102</v>
       </c>
       <c r="R23" t="n">
-        <v>139.4071476787742</v>
+        <v>11.12869608671251</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.327790841341365</v>
       </c>
       <c r="J24" t="n">
-        <v>27.84921920708619</v>
+        <v>273.9789201915642</v>
       </c>
       <c r="K24" t="n">
-        <v>566.1522463475727</v>
+        <v>79.57117967984271</v>
       </c>
       <c r="L24" t="n">
         <v>125.9434012455922</v>
@@ -36451,10 +36451,10 @@
         <v>164.8826170682622</v>
       </c>
       <c r="O24" t="n">
-        <v>141.7454659658978</v>
+        <v>183.5343671815629</v>
       </c>
       <c r="P24" t="n">
-        <v>375.8175727213272</v>
+        <v>566.1522463475727</v>
       </c>
       <c r="Q24" t="n">
         <v>460.4101399106679</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>59.68408025980301</v>
+        <v>389.760673075691</v>
       </c>
       <c r="K26" t="n">
-        <v>110.2076313628769</v>
+        <v>524.3401325076055</v>
       </c>
       <c r="L26" t="n">
-        <v>151.8184872365541</v>
+        <v>566.1522463475727</v>
       </c>
       <c r="M26" t="n">
-        <v>566.1522463475727</v>
+        <v>181.8829982958533</v>
       </c>
       <c r="N26" t="n">
         <v>186.7135224251685</v>
       </c>
       <c r="O26" t="n">
-        <v>382.4008522168265</v>
+        <v>170.852950507253</v>
       </c>
       <c r="P26" t="n">
-        <v>566.1522463475727</v>
+        <v>131.7049946292924</v>
       </c>
       <c r="Q26" t="n">
         <v>79.19793327887629</v>
       </c>
       <c r="R26" t="n">
-        <v>139.4071476787742</v>
+        <v>11.12869608671251</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.327790841341365</v>
       </c>
       <c r="J27" t="n">
         <v>273.9789201915642</v>
       </c>
       <c r="K27" t="n">
-        <v>79.57117967984271</v>
+        <v>531.4309465558852</v>
       </c>
       <c r="L27" t="n">
-        <v>566.1522463475727</v>
+        <v>125.9434012455922</v>
       </c>
       <c r="M27" t="n">
         <v>154.8887276848855</v>
@@ -36688,10 +36688,10 @@
         <v>164.8826170682622</v>
       </c>
       <c r="O27" t="n">
+        <v>141.7454659658978</v>
+      </c>
+      <c r="P27" t="n">
         <v>566.1522463475727</v>
-      </c>
-      <c r="P27" t="n">
-        <v>161.7241785813011</v>
       </c>
       <c r="Q27" t="n">
         <v>50.3392742502904</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>59.68408025980301</v>
+        <v>389.760673075691</v>
       </c>
       <c r="K29" t="n">
         <v>110.2076313628769</v>
       </c>
       <c r="L29" t="n">
-        <v>566.1522463475727</v>
+        <v>151.8184872365541</v>
       </c>
       <c r="M29" t="n">
         <v>181.8829982958533</v>
       </c>
       <c r="N29" t="n">
-        <v>407.3448689534034</v>
+        <v>186.7135224251685</v>
       </c>
       <c r="O29" t="n">
-        <v>566.1522463475727</v>
+        <v>170.852950507253</v>
       </c>
       <c r="P29" t="n">
-        <v>131.7049946292924</v>
+        <v>417.4539415248438</v>
       </c>
       <c r="Q29" t="n">
-        <v>79.19793327887629</v>
+        <v>493.6367950470102</v>
       </c>
       <c r="R29" t="n">
         <v>139.4071476787742</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.327790841341365</v>
       </c>
       <c r="J30" t="n">
-        <v>27.84921920708619</v>
+        <v>273.9789201915642</v>
       </c>
       <c r="K30" t="n">
         <v>566.1522463475727</v>
       </c>
       <c r="L30" t="n">
-        <v>566.1522463475727</v>
+        <v>125.9434012455922</v>
       </c>
       <c r="M30" t="n">
         <v>154.8887276848855</v>
@@ -36928,13 +36928,13 @@
         <v>141.7454659658978</v>
       </c>
       <c r="P30" t="n">
-        <v>263.7618628336617</v>
+        <v>105.8542512936782</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.3392742502904</v>
+        <v>460.4101399106679</v>
       </c>
       <c r="R30" t="n">
-        <v>81.91773044606222</v>
+        <v>15.50582960182942</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>59.68408025980301</v>
+        <v>389.760673075691</v>
       </c>
       <c r="K32" t="n">
         <v>110.2076313628769</v>
@@ -37077,10 +37077,10 @@
         <v>566.1522463475727</v>
       </c>
       <c r="M32" t="n">
-        <v>418.3749167420037</v>
+        <v>566.1522463475727</v>
       </c>
       <c r="N32" t="n">
-        <v>566.1522463475727</v>
+        <v>216.5767755181777</v>
       </c>
       <c r="O32" t="n">
         <v>170.852950507253</v>
@@ -37092,7 +37092,7 @@
         <v>79.19793327887629</v>
       </c>
       <c r="R32" t="n">
-        <v>139.4071476787742</v>
+        <v>11.12869608671251</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>8.327790841341365</v>
       </c>
       <c r="J33" t="n">
-        <v>27.84921920708619</v>
+        <v>273.9789201915642</v>
       </c>
       <c r="K33" t="n">
-        <v>566.1522463475727</v>
+        <v>499.7403455033399</v>
       </c>
       <c r="L33" t="n">
         <v>125.9434012455922</v>
@@ -37165,13 +37165,13 @@
         <v>141.7454659658978</v>
       </c>
       <c r="P33" t="n">
-        <v>367.4897818799858</v>
+        <v>105.8542512936782</v>
       </c>
       <c r="Q33" t="n">
         <v>460.4101399106679</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>81.91773044606222</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>59.68408025980301</v>
+        <v>389.760673075691</v>
       </c>
       <c r="K35" t="n">
         <v>110.2076313628769</v>
@@ -37320,10 +37320,10 @@
         <v>186.7135224251685</v>
       </c>
       <c r="O35" t="n">
-        <v>184.7692134958183</v>
+        <v>170.852950507253</v>
       </c>
       <c r="P35" t="n">
-        <v>509.5695143494335</v>
+        <v>193.4091845221108</v>
       </c>
       <c r="Q35" t="n">
         <v>493.6367950470102</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.327790841341365</v>
       </c>
       <c r="J36" t="n">
-        <v>27.84921920708619</v>
+        <v>273.9789201915642</v>
       </c>
       <c r="K36" t="n">
-        <v>79.57117967984271</v>
+        <v>499.7403455033399</v>
       </c>
       <c r="L36" t="n">
-        <v>509.5695143494335</v>
+        <v>125.9434012455922</v>
       </c>
       <c r="M36" t="n">
-        <v>509.5695143494335</v>
+        <v>154.8887276848855</v>
       </c>
       <c r="N36" t="n">
         <v>164.8826170682622</v>
       </c>
       <c r="O36" t="n">
-        <v>159.982954292887</v>
+        <v>141.7454659658978</v>
       </c>
       <c r="P36" t="n">
         <v>105.8542512936782</v>
@@ -37408,7 +37408,7 @@
         <v>460.4101399106679</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>81.91773044606222</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>63.92391212825686</v>
       </c>
       <c r="K37" t="n">
-        <v>29.42054293874671</v>
+        <v>237.7843748435085</v>
       </c>
       <c r="L37" t="n">
-        <v>351.3520481034102</v>
+        <v>367.0329732013819</v>
       </c>
       <c r="M37" t="n">
         <v>402.3777422161604</v>
@@ -37481,7 +37481,7 @@
         <v>361.5423210203115</v>
       </c>
       <c r="P37" t="n">
-        <v>292.7725176698319</v>
+        <v>68.72776066709827</v>
       </c>
       <c r="Q37" t="n">
         <v>125.053057029076</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>389.760673075691</v>
+        <v>59.68408025980301</v>
       </c>
       <c r="K38" t="n">
         <v>110.2076313628769</v>
       </c>
       <c r="L38" t="n">
-        <v>151.8184872365541</v>
+        <v>435.7740753276109</v>
       </c>
       <c r="M38" t="n">
-        <v>181.8829982958533</v>
+        <v>509.5695143494335</v>
       </c>
       <c r="N38" t="n">
-        <v>248.4177123179871</v>
+        <v>509.5695143494335</v>
       </c>
       <c r="O38" t="n">
         <v>170.852950507253</v>
@@ -37563,10 +37563,10 @@
         <v>131.7049946292924</v>
       </c>
       <c r="Q38" t="n">
-        <v>493.6367950470102</v>
+        <v>79.19793327887629</v>
       </c>
       <c r="R38" t="n">
-        <v>139.4071476787742</v>
+        <v>11.12869608671251</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.327790841341365</v>
       </c>
       <c r="J39" t="n">
-        <v>27.84921920708619</v>
+        <v>273.9789201915642</v>
       </c>
       <c r="K39" t="n">
-        <v>79.57117967984271</v>
+        <v>499.7403455033399</v>
       </c>
       <c r="L39" t="n">
         <v>125.9434012455922</v>
       </c>
       <c r="M39" t="n">
-        <v>509.5695143494335</v>
+        <v>154.8887276848855</v>
       </c>
       <c r="N39" t="n">
         <v>164.8826170682622</v>
       </c>
       <c r="O39" t="n">
-        <v>509.5695143494335</v>
+        <v>141.7454659658978</v>
       </c>
       <c r="P39" t="n">
-        <v>509.5695143494335</v>
+        <v>105.8542512936782</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.73442990220772</v>
+        <v>460.4101399106679</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>81.91773044606222</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>237.7843748435085</v>
+        <v>202.7165869981078</v>
       </c>
       <c r="L40" t="n">
         <v>367.0329732013819</v>
       </c>
       <c r="M40" t="n">
-        <v>242.2568973416838</v>
+        <v>402.3777422161604</v>
       </c>
       <c r="N40" t="n">
         <v>391.2472490454986</v>
@@ -37721,7 +37721,7 @@
         <v>292.7725176698319</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.053057029076</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.60034324836825</v>
+        <v>389.760673075691</v>
       </c>
       <c r="K41" t="n">
         <v>110.2076313628769</v>
@@ -37797,7 +37797,7 @@
         <v>170.852950507253</v>
       </c>
       <c r="P41" t="n">
-        <v>509.5695143494335</v>
+        <v>193.4091845221108</v>
       </c>
       <c r="Q41" t="n">
         <v>493.6367950470102</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.327790841341365</v>
       </c>
       <c r="J42" t="n">
-        <v>27.84921920708619</v>
+        <v>273.9789201915642</v>
       </c>
       <c r="K42" t="n">
         <v>79.57117967984271</v>
@@ -37870,19 +37870,19 @@
         <v>509.5695143494335</v>
       </c>
       <c r="N42" t="n">
-        <v>164.8826170682622</v>
+        <v>272.6178135040529</v>
       </c>
       <c r="O42" t="n">
         <v>509.5695143494335</v>
       </c>
       <c r="P42" t="n">
-        <v>509.5695143494335</v>
+        <v>105.8542512936782</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.73442990220772</v>
+        <v>50.3392742502904</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>81.91773044606222</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.92391212825686</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>237.7843748435085</v>
+        <v>202.7165869981078</v>
       </c>
       <c r="L43" t="n">
         <v>367.0329732013819</v>
@@ -37949,7 +37949,7 @@
         <v>402.3777422161604</v>
       </c>
       <c r="N43" t="n">
-        <v>292.255549071841</v>
+        <v>391.2472490454986</v>
       </c>
       <c r="O43" t="n">
         <v>361.5423210203115</v>
@@ -38019,7 +38019,7 @@
         <v>389.760673075691</v>
       </c>
       <c r="K44" t="n">
-        <v>509.5695143494335</v>
+        <v>110.2076313628769</v>
       </c>
       <c r="L44" t="n">
         <v>151.8184872365541</v>
@@ -38028,16 +38028,16 @@
         <v>181.8829982958533</v>
       </c>
       <c r="N44" t="n">
-        <v>263.4946910995645</v>
+        <v>186.7135224251685</v>
       </c>
       <c r="O44" t="n">
         <v>170.852950507253</v>
       </c>
       <c r="P44" t="n">
-        <v>131.7049946292924</v>
+        <v>193.4091845221108</v>
       </c>
       <c r="Q44" t="n">
-        <v>79.19793327887629</v>
+        <v>493.6367950470102</v>
       </c>
       <c r="R44" t="n">
         <v>139.4071476787742</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.327790841341365</v>
       </c>
       <c r="J45" t="n">
         <v>273.9789201915642</v>
       </c>
       <c r="K45" t="n">
-        <v>509.5695143494335</v>
+        <v>499.7403455033406</v>
       </c>
       <c r="L45" t="n">
         <v>125.9434012455922</v>
@@ -38107,19 +38107,19 @@
         <v>154.8887276848855</v>
       </c>
       <c r="N45" t="n">
-        <v>287.5457867864146</v>
+        <v>164.8826170682622</v>
       </c>
       <c r="O45" t="n">
-        <v>509.5695143494335</v>
+        <v>141.7454659658978</v>
       </c>
       <c r="P45" t="n">
         <v>105.8542512936782</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.3392742502904</v>
+        <v>460.4101399106679</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>81.91773044606222</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>237.7843748435085</v>
+        <v>202.7165869981078</v>
       </c>
       <c r="L46" t="n">
         <v>367.0329732013819</v>
@@ -38186,7 +38186,7 @@
         <v>402.3777422161604</v>
       </c>
       <c r="N46" t="n">
-        <v>231.1264041710221</v>
+        <v>391.2472490454986</v>
       </c>
       <c r="O46" t="n">
         <v>361.5423210203115</v>
@@ -38195,7 +38195,7 @@
         <v>292.7725176698319</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.053057029076</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
